--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:35 AM</t>
+    <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 10 June, 2025 12:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>21</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -60,6 +60,51 @@
   </si>
   <si>
     <t>1:0</t>
+  </si>
+  <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>PANGESTAZOL 40MG 14 TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
   </si>
   <si>
     <t>Tuesday, 10 June, 2025 12:36 AM</t>
@@ -724,38 +769,170 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>21</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>25</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>373</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +946,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>67.00</t>
   </si>
   <si>
@@ -83,6 +92,18 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -107,7 +128,7 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:36 AM</t>
+    <t>Tuesday, 10 June, 2025 9:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -765,7 +786,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -774,14 +795,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -791,14 +812,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -814,7 +835,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -831,7 +852,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -847,24 +868,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -873,14 +894,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -890,49 +911,115 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>31</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>373</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>32</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>32</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>460</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1053,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -128,7 +128,37 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:39 AM</t>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 10 June, 2025 9:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,38 +1018,137 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>460</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>32</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>33</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>32</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>33</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>481.82999999999998</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1192,25 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -104,6 +116,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -119,6 +143,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
@@ -128,6 +164,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -155,10 +203,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 10 June, 2025 9:41 AM</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 10 June, 2025 9:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -948,7 +999,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -970,15 +1021,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -990,14 +1041,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1014,7 +1065,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1036,18 +1087,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,31 +1107,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1089,66 +1140,198 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>481.82999999999998</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>50</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>52</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>57</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>40</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>41</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>40</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>41</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>541.58000000000004</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>66</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>67</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>68</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1390,30 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -92,12 +92,21 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -116,18 +125,24 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
-    <t>17.0000</t>
-  </si>
-  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -203,13 +218,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 10 June, 2025 9:46 AM</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 10 June, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1015,7 +1030,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1025,14 +1040,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1041,14 +1056,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1058,14 +1073,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1074,31 +1089,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1107,14 +1122,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1124,11 +1139,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1140,28 +1155,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1173,14 +1188,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1190,11 +1205,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1206,14 +1221,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1223,14 +1238,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1239,31 +1254,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1272,66 +1287,132 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>45</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>46</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>541.58000000000004</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c t="s" r="Q21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>67</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>45</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>46</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>650.58000000000004</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1410,10 +1491,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CELEBREX 200MG 15 CAPS.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>21.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -128,18 +140,21 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -203,6 +218,24 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>VOLTAREN SR 100MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -224,7 +257,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 10:27 AM</t>
+    <t>Tuesday, 10 June, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +915,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -891,14 +924,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -908,14 +941,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -931,7 +964,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -941,14 +974,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -957,14 +990,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -974,14 +1007,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -990,14 +1023,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1014,7 +1047,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1030,7 +1063,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1040,14 +1073,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,14 +1089,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1080,7 +1113,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,7 +1146,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1129,7 +1162,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1172,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,31 +1188,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1201,18 +1234,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,14 +1254,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,14 +1271,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,14 +1287,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1271,14 +1304,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,14 +1320,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1304,14 +1337,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,31 +1353,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,66 +1386,165 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>650.58000000000004</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>72</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>73</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>50</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>51</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>50</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>51</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1074.5799999999999</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>82</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>83</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>84</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1633,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 10:42 AM</t>
+    <t>Tuesday, 10 June, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -218,15 +218,6 @@
     <t>16.8300</t>
   </si>
   <si>
-    <t>VOLTAREN SR 100MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>VONSECA 20MG 14 TAB</t>
   </si>
   <si>
@@ -257,7 +248,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 10:50 AM</t>
+    <t>Tuesday, 10 June, 2025 10:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,7 +1384,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1426,13 +1417,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1443,7 +1434,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1476,75 +1467,42 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="A25" s="7">
-        <v>19</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c t="s" r="C25" s="8">
-        <v>78</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c t="s" r="H25" s="9">
-        <v>50</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c t="s" r="L25" s="10">
-        <v>51</v>
-      </c>
-      <c r="M25" s="10"/>
-      <c t="s" r="N25" s="8">
+      <c r="P25" s="13">
+        <v>1008.58</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
         <v>79</v>
       </c>
-      <c r="O25" s="8"/>
-      <c t="s" r="P25" s="11">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
         <v>80</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1074.5799999999999</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>82</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>83</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>84</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1643,15 +1601,10 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 10:51 AM</t>
+    <t>Tuesday, 10 June, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:06 AM</t>
+    <t>Tuesday, 10 June, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -206,6 +215,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -248,7 +266,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:07 AM</t>
+    <t>Tuesday, 10 June, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -955,7 +973,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -965,14 +983,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -981,14 +999,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1021,7 +1039,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1054,7 +1072,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1064,14 +1082,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1080,14 +1098,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1120,7 +1138,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,14 +1148,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1146,14 +1164,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,11 +1181,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1179,14 +1197,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1196,14 +1214,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1225,18 +1243,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,31 +1263,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,14 +1296,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1302,7 +1320,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1318,7 +1336,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1346,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,14 +1362,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,11 +1379,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1377,14 +1395,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,11 +1412,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1410,20 +1428,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1434,7 +1452,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1450,13 +1468,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1467,42 +1485,108 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1008.58</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>53</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>54</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>79</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>81</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>53</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>54</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1096.29</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>85</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>86</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>87</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1601,10 +1685,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
@@ -266,7 +278,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:15 AM</t>
+    <t>Tuesday, 10 June, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1336,7 +1348,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1346,14 +1358,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1362,14 +1374,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1386,7 +1398,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1402,7 +1414,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1412,11 +1424,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1428,14 +1440,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1468,7 +1480,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1478,11 +1490,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1494,31 +1506,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1527,7 +1539,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1544,49 +1556,82 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1096.29</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>85</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>53</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>54</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>86</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1121.29</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>89</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>90</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>91</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1695,10 +1740,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:16 AM</t>
+    <t>Tuesday, 10 June, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -278,7 +284,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:23 AM</t>
+    <t>Tuesday, 10 June, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1035,7 +1041,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1051,7 +1057,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1061,11 +1067,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1077,14 +1083,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1094,11 +1100,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1110,14 +1116,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1134,7 +1140,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1150,7 +1156,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1183,7 +1189,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1193,14 +1199,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1209,14 +1215,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1226,11 +1232,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1242,14 +1248,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1259,14 +1265,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1288,18 +1294,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,31 +1314,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1358,11 +1364,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1374,14 +1380,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1391,14 +1397,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,14 +1413,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1424,14 +1430,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1440,14 +1446,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1457,11 +1463,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1473,14 +1479,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1490,11 +1496,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1506,14 +1512,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1523,11 +1529,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1539,31 +1545,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1572,66 +1578,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>87</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>56</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>57</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1121.29</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c t="s" r="Q28" s="12">
         <v>90</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1133.29</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
         <v>91</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>92</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>93</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1745,10 +1784,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>CELEBREX 200MG 15 CAPS.</t>
   </si>
   <si>
-    <t>0:-1</t>
+    <t>1:0</t>
   </si>
   <si>
     <t>1</t>
@@ -59,9 +59,6 @@
     <t>198.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -284,7 +281,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:24 AM</t>
+    <t>Tuesday, 10 June, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -942,7 +939,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -951,14 +948,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -968,14 +965,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -984,14 +981,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1001,14 +998,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1017,14 +1014,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1034,14 +1031,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1050,14 +1047,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1067,14 +1064,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1083,14 +1080,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1100,14 +1097,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1116,14 +1113,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1133,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1149,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1166,14 +1163,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1182,14 +1179,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1199,14 +1196,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1215,14 +1212,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1232,14 +1229,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1248,14 +1245,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1265,14 +1262,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,14 +1278,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1298,14 +1295,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1314,31 +1311,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1347,14 +1344,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,14 +1361,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1380,14 +1377,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1394,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,14 +1410,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,14 +1427,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1446,14 +1443,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1463,14 +1460,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1479,14 +1476,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1496,14 +1493,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1512,14 +1509,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,14 +1526,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1545,14 +1542,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1562,14 +1559,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,31 +1575,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1611,31 +1608,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1646,7 +1643,7 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c t="s" r="A30" s="14">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1654,13 +1651,13 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c t="s" r="G30" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
       <c t="s" r="K30" s="17">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -122,6 +122,30 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -155,9 +179,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -176,9 +197,6 @@
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -206,9 +224,6 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
@@ -230,6 +245,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -260,6 +284,12 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -281,7 +311,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:52 AM</t>
+    <t>Tuesday, 10 June, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1153,7 +1183,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1163,11 +1193,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>17</v>
@@ -1179,14 +1209,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1196,14 +1226,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1212,14 +1242,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1229,14 +1259,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1245,14 +1275,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1269,7 +1299,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,10 +1329,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,28 +1341,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,11 +1391,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1377,31 +1407,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1431,10 +1461,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1443,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1460,11 +1490,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1493,14 +1523,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1509,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1526,11 +1556,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1542,14 +1572,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1559,11 +1589,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1575,31 +1605,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,66 +1638,198 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>88</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1133.29</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c t="s" r="Q29" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>91</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>42</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>62</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>92</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>42</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>62</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>94</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>42</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>62</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1370.29</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1786,10 +1948,30 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:53 AM</t>
+    <t>Tuesday, 10 June, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CELEBREX 200MG 15 CAPS.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>198.00</t>
   </si>
   <si>
@@ -62,9 +77,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -176,6 +188,24 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -212,7 +242,7 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>60.00</t>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
@@ -290,6 +320,18 @@
     <t>25.00</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -311,7 +353,16 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 11:59 AM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 10 June, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -969,7 +1020,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -978,14 +1029,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -995,14 +1046,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1011,14 +1062,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1028,14 +1079,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1044,14 +1095,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1068,7 +1119,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1101,7 +1152,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1117,7 +1168,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1127,14 +1178,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1143,14 +1194,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1160,14 +1211,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1176,14 +1227,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1200,7 +1251,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1233,7 +1284,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1249,7 +1300,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1259,14 +1310,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1275,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1292,14 +1343,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1308,14 +1359,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1332,7 +1383,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1348,7 +1399,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1358,14 +1409,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1374,14 +1425,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1395,10 +1446,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1407,20 +1458,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1431,7 +1482,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1447,7 +1498,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1457,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1494,10 +1545,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1513,24 +1564,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1539,14 +1590,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1556,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,14 +1623,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,14 +1640,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,14 +1673,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1638,14 +1689,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1655,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,14 +1722,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,14 +1739,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1704,7 +1755,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1717,18 +1768,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,7 +1788,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1750,18 +1801,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1770,66 +1821,297 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>98</v>
       </c>
-      <c t="s" r="Q32" s="12">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>16</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1370.29</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>101</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>46</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>72</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>102</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>104</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>72</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>105</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>46</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>72</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>108</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>110</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>46</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>72</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>111</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>46</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>72</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>108</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>115</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>46</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>72</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>60</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1524.97</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>117</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>118</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>119</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1968,10 +2250,45 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:07 PM</t>
+    <t>Tuesday, 10 June, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CELEBREX 200MG 15 CAPS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>198.00</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -254,6 +263,15 @@
     <t>100.00</t>
   </si>
   <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
@@ -326,12 +344,6 @@
     <t>26:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -362,7 +374,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:12 PM</t>
+    <t>Tuesday, 10 June, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1053,7 +1065,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1062,14 +1074,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1079,14 +1091,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1095,14 +1107,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1112,11 +1124,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1128,14 +1140,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1185,7 +1197,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1201,7 +1213,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1211,14 +1223,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1227,14 +1239,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1244,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1260,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1284,7 +1296,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1317,7 +1329,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1333,7 +1345,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1350,7 +1362,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1366,7 +1378,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1399,7 +1411,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1421,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,14 +1437,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1449,7 +1461,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1465,7 +1477,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1482,7 +1494,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1498,7 +1510,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1515,7 +1527,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1531,7 +1543,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1564,13 +1576,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1578,10 +1590,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1590,31 +1602,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1623,14 +1635,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,11 +1652,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1656,14 +1668,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,11 +1685,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1696,7 +1708,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,14 +1718,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1729,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,14 +1751,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1772,14 +1784,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1828,7 +1840,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1838,11 +1850,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1871,11 +1883,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1887,20 +1899,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1908,10 +1920,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1920,20 +1932,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1944,7 +1956,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1960,13 +1972,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1974,10 +1986,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1986,31 +1998,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2019,31 +2031,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2052,66 +2064,132 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>118</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1524.97</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>117</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>118</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>75</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>112</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>119</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>75</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>63</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1627.97</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>121</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>122</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>123</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2285,10 +2363,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -305,12 +314,6 @@
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -374,7 +377,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:14 PM</t>
+    <t>Tuesday, 10 June, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1065,7 +1068,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1074,14 +1077,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1098,7 +1101,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1107,14 +1110,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1124,14 +1127,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1140,14 +1143,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1157,11 +1160,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1173,14 +1176,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1230,7 +1233,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1246,7 +1249,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,14 +1259,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1272,14 +1275,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1329,7 +1332,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1345,7 +1348,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1362,7 +1365,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1378,7 +1381,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1395,7 +1398,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1411,7 +1414,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1444,7 +1447,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1470,14 +1473,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1494,7 +1497,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1527,7 +1530,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1543,7 +1546,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1560,7 +1563,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1576,7 +1579,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1586,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1609,13 +1612,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1623,10 +1626,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1635,31 +1638,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,11 +1688,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1701,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,11 +1721,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1741,7 +1744,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1754,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1774,7 +1777,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1791,7 +1794,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1807,7 +1810,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1820,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1836,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1873,7 +1876,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1906,7 +1909,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,11 +1919,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1932,14 +1935,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +1952,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1965,31 +1968,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,31 +2001,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,31 +2034,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2064,31 +2067,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2097,31 +2100,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2137,59 +2140,92 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>120</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1627.97</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>22</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>78</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>66</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>121</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c t="s" r="Q42" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1656.6800000000001</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>122</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
         <v>123</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>124</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2373,10 +2409,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANSELACOX 90MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>103.9500</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -272,6 +281,12 @@
     <t>100.00</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -377,7 +392,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:19 PM</t>
+    <t>Tuesday, 10 June, 2025 12:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1066,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1061,11 +1076,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1077,14 +1092,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1094,14 +1109,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1110,7 +1125,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1127,14 +1142,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1150,7 +1165,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1167,7 +1182,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1183,7 +1198,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1216,7 +1231,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1226,11 +1241,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1242,14 +1257,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1259,14 +1274,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1275,14 +1290,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1299,7 +1314,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1315,7 +1330,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1332,7 +1347,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1348,7 +1363,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1365,7 +1380,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1381,7 +1396,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1398,7 +1413,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1414,7 +1429,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1431,7 +1446,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1447,7 +1462,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1480,7 +1495,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1490,14 +1505,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,14 +1521,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1530,7 +1545,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1546,7 +1561,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1563,7 +1578,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1579,7 +1594,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1596,7 +1611,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1612,7 +1627,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,14 +1637,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1645,13 +1660,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1659,10 +1674,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,31 +1686,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,11 +1736,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1737,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,11 +1769,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1777,7 +1792,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1802,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1810,7 +1825,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,14 +1868,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,11 +1934,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1935,14 +1950,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1975,7 +1990,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,11 +2000,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2001,31 +2016,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2041,24 +2056,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2067,31 +2082,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2107,24 +2122,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2133,31 +2148,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2173,59 +2188,125 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>124</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1656.6800000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>122</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>123</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>124</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>81</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>118</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>125</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>25</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>81</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>69</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1790.6300000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>127</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>128</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>129</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2414,10 +2495,20 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANSELACOX 90MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -71,6 +83,18 @@
     <t>103.9500</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -95,9 +119,6 @@
     <t>83.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CELEBREX 200MG 15 CAPS.</t>
   </si>
   <si>
@@ -110,9 +131,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -243,9 +261,6 @@
   </si>
   <si>
     <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>34.00</t>
@@ -1066,7 +1081,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1076,14 +1091,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1092,14 +1107,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1116,7 +1131,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1149,7 +1164,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1158,14 +1173,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1182,7 +1197,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1198,7 +1213,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1208,11 +1223,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1224,14 +1239,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1241,11 +1256,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1257,14 +1272,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1274,14 +1289,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1290,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1307,14 +1322,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1323,14 +1338,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1340,14 +1355,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1356,14 +1371,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1380,7 +1395,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1429,7 +1444,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1446,7 +1461,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1462,7 +1477,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1479,7 +1494,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1495,7 +1510,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1528,7 +1543,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1538,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1554,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1571,14 +1586,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1587,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1611,7 +1626,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1627,7 +1642,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1644,7 +1659,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1660,7 +1675,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1670,11 +1685,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1693,24 +1708,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1719,14 +1734,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1736,14 +1751,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1752,28 +1767,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1785,14 +1800,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,14 +1817,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1818,7 +1833,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1835,14 +1850,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1858,7 +1873,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1868,14 +1883,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1891,7 +1906,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1901,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1917,14 +1932,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1934,11 +1949,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1950,14 +1965,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1967,11 +1982,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2000,14 +2015,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2040,7 +2055,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2056,7 +2071,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2066,14 +2081,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2082,31 +2097,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2122,24 +2137,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2148,31 +2163,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2188,24 +2203,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2214,31 +2229,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2254,59 +2269,125 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1790.6300000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>127</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>128</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>129</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>33</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>86</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>123</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>130</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>33</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>86</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>75</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1948.6300000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>132</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>133</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>134</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2505,10 +2586,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -407,7 +407,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:21 PM</t>
+    <t>Tuesday, 10 June, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
     <t>80.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -119,6 +131,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>CELEBREX 200MG 15 CAPS.</t>
   </si>
   <si>
@@ -218,7 +242,7 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -236,9 +260,6 @@
     <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>4.9500</t>
   </si>
   <si>
@@ -392,10 +413,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -404,10 +425,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 10 June, 2025 12:22 PM</t>
+    <t>Tuesday, 10 June, 2025 12:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1098,7 +1116,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1114,7 +1132,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1124,14 +1142,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1140,14 +1158,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1164,7 +1182,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1197,7 +1215,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1230,7 +1248,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1246,7 +1264,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1256,11 +1274,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1272,14 +1290,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1289,14 +1307,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1305,7 +1323,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1322,14 +1340,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1338,14 +1356,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1355,14 +1373,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1371,14 +1389,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1395,7 +1413,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1411,7 +1429,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1421,14 +1439,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1437,14 +1455,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1454,11 +1472,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1470,7 +1488,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1487,14 +1505,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1521,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1520,11 +1538,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1536,14 +1554,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1571,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,14 +1587,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1586,14 +1604,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,14 +1620,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1619,14 +1637,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1635,7 +1653,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1652,14 +1670,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1668,14 +1686,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,11 +1703,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1701,14 +1719,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,14 +1736,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1751,14 +1769,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,28 +1785,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1800,14 +1818,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1817,14 +1835,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1833,31 +1851,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,14 +1901,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1916,14 +1934,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,14 +1983,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,14 +2000,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,14 +2016,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2022,7 +2040,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2038,7 +2056,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2055,7 +2073,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2071,7 +2089,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2081,14 +2099,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,14 +2148,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2147,14 +2165,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2170,24 +2188,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2196,31 +2214,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2229,28 +2247,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2262,31 +2280,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2302,21 +2320,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2328,66 +2346,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>136</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>37</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>93</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>130</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>131</v>
       </c>
-      <c t="s" r="Q46" s="12">
+      <c t="s" r="Q47" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1948.6300000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>132</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>133</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>134</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>137</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>37</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>93</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>14</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2075.5100000000002</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>138</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>139</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>140</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2596,10 +2680,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>ANSELACOX 90MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -95,18 +104,21 @@
     <t>103.9500</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -287,12 +299,21 @@
     <t>34.00</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -326,9 +347,6 @@
     <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -362,6 +380,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -404,28 +431,37 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 12:56 PM</t>
+    <t>Tuesday, 10 June, 2025 2:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1198,7 +1234,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1208,14 +1244,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1224,14 +1260,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1241,14 +1277,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1257,14 +1293,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1274,11 +1310,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1290,14 +1326,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1307,14 +1343,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1323,14 +1359,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1340,11 +1376,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1356,14 +1392,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1373,14 +1409,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1389,7 +1425,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1406,14 +1442,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1422,14 +1458,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1439,11 +1475,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1455,14 +1491,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,14 +1508,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1488,14 +1524,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1505,14 +1541,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1521,14 +1557,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1538,11 +1574,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1554,14 +1590,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1571,14 +1607,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1587,14 +1623,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1604,11 +1640,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1620,14 +1656,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,11 +1673,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1653,14 +1689,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1670,14 +1706,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1722,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1703,14 +1739,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1719,14 +1755,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1736,14 +1772,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1752,14 +1788,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,11 +1805,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1785,14 +1821,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,14 +1838,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,14 +1854,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1835,14 +1871,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1851,28 +1887,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1884,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,11 +1937,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1917,28 +1953,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -1950,20 +1986,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1971,10 +2007,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1983,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,11 +2036,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2016,7 +2052,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2033,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2049,14 +2085,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2070,10 +2106,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,14 +2118,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2099,11 +2135,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2115,14 +2151,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2132,14 +2168,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,14 +2184,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2165,14 +2201,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2181,14 +2217,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2198,11 +2234,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2214,14 +2250,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2231,11 +2267,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2247,28 +2283,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2280,31 +2316,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2313,31 +2349,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2346,31 +2382,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2379,28 +2415,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2412,66 +2448,231 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2075.5100000000002</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>138</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>41</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>97</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>139</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>140</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>41</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>97</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>141</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>144</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>41</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>97</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>139</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>146</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>147</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>97</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>148</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>149</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>41</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>97</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>14</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2319.8600000000001</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>150</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>151</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>152</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2690,10 +2891,35 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -431,6 +431,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -461,7 +464,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 2:20 PM</t>
+    <t>Tuesday, 10 June, 2025 2:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2502,10 +2505,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2514,7 +2517,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2531,14 +2534,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2547,7 +2550,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2568,7 +2571,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2580,14 +2583,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2597,7 +2600,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2613,7 +2616,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2642,13 +2645,13 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2319.8600000000001</v>
+        <v>2310.8600000000001</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c t="s" r="A55" s="14">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2656,13 +2659,13 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c t="s" r="G55" s="15">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
       <c t="s" r="K55" s="17">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -464,7 +464,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 2:59 PM</t>
+    <t>Tuesday, 10 June, 2025 3:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -323,7 +323,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
@@ -440,10 +443,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 3:08 PM</t>
+    <t>Tuesday, 10 June, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2043,10 +2043,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2088,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2204,11 +2204,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2220,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2270,11 +2270,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2303,11 +2303,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2352,14 +2352,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2402,11 +2402,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2451,14 +2451,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2501,11 +2501,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>35</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2534,11 +2534,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>144</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2310.8600000000001</v>
+        <v>2324.8600000000001</v>
       </c>
       <c r="Q54" s="13"/>
     </row>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -464,7 +464,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 3:14 PM</t>
+    <t>Tuesday, 10 June, 2025 3:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -311,6 +311,24 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -320,6 +338,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -464,7 +485,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 3:22 PM</t>
+    <t>Tuesday, 10 June, 2025 3:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1996,13 +2017,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2013,7 +2034,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,7 +2050,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2062,24 +2083,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2128,7 +2149,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2142,10 +2163,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,7 +2175,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2194,7 +2215,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2227,7 +2248,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,14 +2291,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,11 +2324,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2336,11 +2357,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2359,7 +2380,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,11 +2390,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,31 +2439,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,31 +2472,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2491,13 +2512,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2508,7 +2529,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,10 +2559,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2567,11 +2588,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2616,7 +2637,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2633,49 +2654,148 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>152</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>41</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>97</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>147</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>154</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>155</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>97</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>156</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>157</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>41</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>97</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>14</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q53" s="12">
+      <c t="s" r="Q56" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2324.8600000000001</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>151</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>152</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>153</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2398.6950000000002</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>158</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>159</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>160</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2919,10 +3039,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 3:24 PM</t>
+    <t>Tuesday, 10 June, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -485,7 +485,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 4:26 PM</t>
+    <t>Tuesday, 10 June, 2025 4:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,7 +1456,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -155,15 +155,6 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>CELEBREX 200MG 15 CAPS.</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -485,7 +476,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 4:32 PM</t>
+    <t>Tuesday, 10 June, 2025 4:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,7 +1447,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,14 +1457,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1482,14 +1473,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1499,7 +1490,7 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
@@ -1522,7 +1513,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1532,11 +1523,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1548,14 +1539,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,14 +1556,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1581,14 +1572,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1621,7 +1612,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1654,7 +1645,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1671,7 +1662,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1687,7 +1678,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1704,7 +1695,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1720,7 +1711,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1737,7 +1728,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1753,7 +1744,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1770,7 +1761,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1786,7 +1777,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,14 +1787,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1812,14 +1803,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1829,14 +1820,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1845,14 +1836,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1862,14 +1853,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1885,7 +1876,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1918,7 +1909,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1932,10 +1923,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1944,20 +1935,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1965,7 +1956,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1977,20 +1968,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2050,13 +2041,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2067,7 +2058,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2083,24 +2074,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,14 +2100,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2117,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2149,7 +2140,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2150,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,14 +2166,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,11 +2183,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2215,7 +2206,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,11 +2216,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2241,14 +2232,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,14 +2249,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,14 +2265,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,7 +2282,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2314,7 +2305,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2324,14 +2315,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,14 +2331,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2380,7 +2371,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2397,7 +2388,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2413,7 +2404,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,14 +2414,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,14 +2430,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2456,11 +2447,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2472,14 +2463,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2512,13 +2503,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2526,10 +2517,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,28 +2529,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2571,31 +2562,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2617,7 +2608,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2625,10 +2616,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2650,18 +2641,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2670,28 +2661,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2710,92 +2701,59 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="A56" s="7">
-        <v>50</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c t="s" r="C56" s="8">
+      <c r="P56" s="13">
+        <v>2200.6950000000002</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>155</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>156</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
         <v>157</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c t="s" r="H56" s="9">
-        <v>41</v>
-      </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c t="s" r="L56" s="10">
-        <v>97</v>
-      </c>
-      <c r="M56" s="10"/>
-      <c t="s" r="N56" s="8">
-        <v>14</v>
-      </c>
-      <c r="O56" s="8"/>
-      <c t="s" r="P56" s="11">
-        <v>15</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2398.6950000000002</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>158</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>159</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>160</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3049,15 +3007,10 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -476,7 +476,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 4:34 PM</t>
+    <t>Tuesday, 10 June, 2025 4:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -428,6 +437,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
@@ -476,7 +494,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 4:41 PM</t>
+    <t>Tuesday, 10 June, 2025 4:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1787,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1876,7 +1894,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1909,7 +1927,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1923,10 +1941,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1935,20 +1953,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1956,7 +1974,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1968,20 +1986,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2041,13 +2059,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2058,7 +2076,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2074,24 +2092,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2140,7 +2158,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2183,7 +2201,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2206,7 +2224,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2216,11 +2234,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2282,7 +2300,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2305,7 +2323,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2371,7 +2389,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2388,7 +2406,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2404,7 +2422,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2430,14 +2448,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2503,13 +2521,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2517,10 +2535,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2529,28 +2547,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2562,7 +2580,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2575,18 +2593,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2595,31 +2613,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2641,18 +2659,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2661,20 +2679,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2682,10 +2700,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2694,7 +2712,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2707,53 +2725,119 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2200.6950000000002</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>155</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>156</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>157</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>158</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>97</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>159</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>160</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>41</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>97</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>14</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2563.6950000000002</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>161</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>162</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>163</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3007,10 +3091,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -122,132 +122,138 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
@@ -494,7 +500,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 4:43 PM</t>
+    <t>Tuesday, 10 June, 2025 5:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1399,7 +1405,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1409,11 +1415,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1425,14 +1431,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1442,11 +1448,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>35</v>
@@ -1458,7 +1464,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1479,7 +1485,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1491,7 +1497,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1508,11 +1514,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1524,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1541,11 +1547,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1557,14 +1563,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1574,11 +1580,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1590,7 +1596,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1607,11 +1613,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1623,14 +1629,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,11 +1646,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1656,7 +1662,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1673,11 +1679,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1729,7 +1735,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1739,11 +1745,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1755,7 +1761,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1772,14 +1778,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,11 +1811,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1821,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,11 +1844,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1854,14 +1860,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1875,7 +1881,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1887,14 +1893,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,11 +1910,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1920,7 +1926,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1937,11 +1943,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1953,7 +1959,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1970,11 +1976,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1986,28 +1992,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2019,7 +2025,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2036,11 +2042,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2052,7 +2058,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2069,11 +2075,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2085,28 +2091,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2151,14 +2157,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2174,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,7 +2190,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2201,11 +2207,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,11 +2240,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2250,7 +2256,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2267,11 +2273,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2283,7 +2289,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2304,7 +2310,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2339,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2349,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,11 +2372,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2382,7 +2388,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2399,11 +2405,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2432,11 +2438,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2448,7 +2454,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2498,11 +2504,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2514,7 +2520,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2531,11 +2537,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2570,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2580,28 +2586,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2613,20 +2619,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2634,7 +2640,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2646,28 +2652,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>35</v>
@@ -2679,31 +2685,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2712,28 +2718,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2745,28 +2751,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2778,20 +2784,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2813,7 +2819,7 @@
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c t="s" r="A59" s="14">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -2821,13 +2827,13 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c t="s" r="G59" s="15">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="16"/>
       <c t="s" r="K59" s="17">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -452,6 +470,15 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
@@ -500,7 +527,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 5:06 PM</t>
+    <t>Tuesday, 10 June, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1933,7 +1960,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1943,14 +1970,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1966,7 +1993,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1980,10 +2007,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1992,20 +2019,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2013,7 +2040,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2025,20 +2052,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2098,13 +2125,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2115,7 +2142,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2137,15 +2164,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2157,31 +2184,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2190,14 +2217,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2207,11 +2234,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2273,11 +2300,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2388,14 +2415,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2405,14 +2432,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,14 +2448,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2445,7 +2472,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2471,11 +2498,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2487,14 +2514,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2537,11 +2564,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2553,14 +2580,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2577,7 +2604,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2593,13 +2620,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2607,10 +2634,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2619,28 +2646,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2652,31 +2679,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2685,7 +2712,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2698,18 +2725,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2718,28 +2745,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2751,20 +2778,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2772,10 +2799,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2784,7 +2811,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2797,53 +2824,152 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>166</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>70</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>102</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>161</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>168</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>169</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>102</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>170</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>171</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>70</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>102</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>14</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q57" s="12">
+      <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2563.6950000000002</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>163</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>164</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>165</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2672.4749999999999</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>172</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>173</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>174</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3107,10 +3233,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -527,7 +527,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 5:11 PM</t>
+    <t>Tuesday, 10 June, 2025 5:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -179,6 +179,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CHICKS OMEGA D3</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>155.0000</t>
+  </si>
+  <si>
     <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -218,12 +233,21 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -245,9 +269,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -266,13 +287,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>8:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>63.8400</t>
   </si>
   <si>
     <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
@@ -317,9 +338,6 @@
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>195.00</t>
   </si>
   <si>
@@ -506,7 +524,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -527,7 +548,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 5:25 PM</t>
+    <t>Tuesday, 10 June, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,15 +1624,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,11 +1661,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,11 +1694,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1828,7 +1849,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1894,7 +1915,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1970,11 +1991,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,11 +2024,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2052,31 +2073,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2125,13 +2146,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2158,13 +2179,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2191,13 +2212,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2208,7 +2229,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2230,15 +2251,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2250,31 +2271,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,11 +2321,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2366,11 +2387,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2538,7 +2559,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2670,7 +2691,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2686,7 +2707,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2719,13 +2740,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2733,7 +2754,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2745,31 +2766,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2778,31 +2799,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2811,31 +2832,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2851,24 +2872,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2877,20 +2898,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2898,10 +2919,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2910,66 +2931,132 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2672.4749999999999</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>172</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>173</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>174</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>175</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>176</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>58</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>177</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>178</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>57</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>58</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>14</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2857.1950000000002</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>179</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>180</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>181</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3248,10 +3335,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -416,6 +416,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
@@ -548,7 +557,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 5:26 PM</t>
+    <t>Tuesday, 10 June, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2509,7 +2518,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2526,7 +2535,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2608,7 +2617,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2625,7 +2634,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2641,7 +2650,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2684,11 +2693,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2740,7 +2749,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2757,7 +2766,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2773,7 +2782,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2790,7 +2799,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2806,13 +2815,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2820,10 +2829,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2832,14 +2841,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2922,7 +2931,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>172</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2931,7 +2940,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3004,7 +3013,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3014,49 +3023,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2857.1950000000002</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>179</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>180</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>181</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>57</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>58</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>14</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2993.1950000000002</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>182</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>183</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>184</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3345,10 +3387,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -140,6 +149,15 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t>BORGASONE 0.1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -302,6 +320,15 @@
     <t>4.9500</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -344,6 +371,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
@@ -410,6 +446,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>MUPIRAX 2% OINT. 10 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -458,9 +500,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -557,7 +596,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 5:37 PM</t>
+    <t>Tuesday, 10 June, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1264,7 +1303,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1274,11 +1313,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>18</v>
@@ -1290,14 +1329,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1363,7 +1402,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1380,7 +1419,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1396,7 +1435,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1406,11 +1445,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1422,14 +1461,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1439,14 +1478,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1455,14 +1494,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1479,7 +1518,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1495,7 +1534,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1505,14 +1544,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1521,14 +1560,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1538,14 +1577,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1561,7 +1600,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1571,14 +1610,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1587,14 +1626,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1604,11 +1643,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1620,31 +1659,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1653,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1670,14 +1709,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1686,28 +1725,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1719,14 +1758,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1759,7 +1798,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1776,7 +1815,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1792,7 +1831,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1802,14 +1841,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1818,14 +1857,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1851,14 +1890,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,11 +1907,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1884,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,14 +1940,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1917,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1941,7 +1980,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1957,7 +1996,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1967,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2023,7 +2062,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2033,14 +2072,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2049,14 +2088,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2066,7 +2105,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2089,7 +2128,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2106,7 +2145,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2122,7 +2161,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2136,10 +2175,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2148,28 +2187,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2181,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,14 +2237,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2214,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,11 +2270,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2254,13 +2293,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2287,13 +2326,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2304,7 +2343,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2320,7 +2359,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,11 +2369,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2346,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2379,28 +2418,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2412,31 +2451,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,7 +2484,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2462,11 +2501,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2478,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2495,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2511,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2544,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2577,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2594,7 +2633,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2617,7 +2656,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2627,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2643,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2660,11 +2699,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2676,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2693,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2716,7 +2755,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2726,14 +2765,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2782,7 +2821,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2799,7 +2838,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2815,7 +2854,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2825,14 +2864,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2841,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2874,31 +2913,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2914,13 +2953,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2931,7 +2970,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2947,13 +2986,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2964,7 +3003,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2973,31 +3012,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3013,21 +3052,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3039,66 +3078,231 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2993.1950000000002</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>182</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>63</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>64</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>183</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>184</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>185</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>63</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>64</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>186</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>189</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>63</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>64</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>183</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>191</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>192</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>64</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>193</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>194</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>63</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>64</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>14</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3180.3150000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>195</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>196</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>197</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3392,10 +3596,35 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -476,6 +485,12 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -596,7 +611,10 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 5:52 PM</t>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>Tuesday, 10 June, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1897,7 +1915,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1925,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1941,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1947,7 +1965,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1963,7 +1981,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +1991,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,14 +2024,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2029,7 +2047,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,14 +2057,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2062,7 +2080,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2088,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,14 +2139,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,7 +2156,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2161,7 +2179,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2178,7 +2196,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2194,7 +2212,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2222,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2227,7 +2245,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2260,7 +2278,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2274,10 +2292,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,28 +2304,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2326,13 +2344,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2359,7 +2377,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2425,13 +2443,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2458,7 +2476,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2475,7 +2493,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2491,24 +2509,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2552,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2557,7 +2575,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,14 +2585,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,14 +2601,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,7 +2618,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2623,7 +2641,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,11 +2651,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,7 +2700,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2699,11 +2717,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2755,7 +2773,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2772,7 +2790,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2788,7 +2806,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,11 +2849,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -2847,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2897,11 +2915,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2953,7 +2971,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2963,11 +2981,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2996,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,11 +3047,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3045,7 +3063,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3058,15 +3076,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3085,24 +3103,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3111,7 +3129,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3151,7 +3169,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,14 +3179,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3177,7 +3195,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3210,14 +3228,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3227,14 +3245,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3260,49 +3278,148 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3180.3150000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>195</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>196</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>197</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>64</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>198</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>199</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>63</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>64</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>14</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>200</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>63</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>64</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>47</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3282.0549999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>201</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>202</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>203</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3621,10 +3738,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -323,6 +323,18 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>-50.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
   </si>
   <si>
@@ -581,6 +593,9 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -614,7 +629,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:05 PM</t>
+    <t>Tuesday, 10 June, 2025 6:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2146,7 +2161,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2171,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2187,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,11 +2204,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2205,14 +2220,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,14 +2237,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2238,14 +2253,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,14 +2270,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2271,14 +2286,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2288,14 +2303,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2304,14 +2319,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,14 +2336,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2337,28 +2352,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2370,28 +2385,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2403,14 +2418,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,11 +2435,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2436,7 +2451,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2453,11 +2468,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2469,28 +2484,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2502,14 +2517,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2534,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,31 +2550,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,14 +2583,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,14 +2600,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2601,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2618,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2634,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2651,7 +2666,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2667,14 +2682,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,11 +2699,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2700,14 +2715,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,14 +2732,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,7 +2748,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2750,11 +2765,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2766,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2798,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,14 +2814,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,14 +2847,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,14 +2864,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2882,7 +2897,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2905,7 +2920,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,11 +2930,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,14 +2963,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,14 +3012,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3014,11 +3029,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3037,7 +3052,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3047,11 +3062,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,14 +3111,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3113,14 +3128,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,31 +3144,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3179,11 +3194,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3195,14 +3210,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3212,14 +3227,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,7 +3243,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>193</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3268,7 +3283,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3278,14 +3293,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3311,14 +3326,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3344,11 +3359,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3360,14 +3375,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3377,49 +3392,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3282.0549999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>201</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>202</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>203</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>204</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>63</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>64</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>14</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>205</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>63</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>64</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>47</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3241.5549999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>206</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>207</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>208</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3753,10 +3834,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AVARA 20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>483.00</t>
+  </si>
+  <si>
+    <t>483.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>CHICKS OMEGA D3</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -224,6 +233,18 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -245,9 +266,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -497,6 +515,12 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -572,6 +596,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
@@ -602,10 +635,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>52.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -629,7 +659,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:06 PM</t>
+    <t>Tuesday, 10 June, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1551,7 +1581,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1567,7 +1597,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1577,14 +1607,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1593,7 +1623,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1610,11 +1640,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1626,14 +1656,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1650,7 +1680,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1666,7 +1696,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1676,14 +1706,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1692,14 +1722,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1709,11 +1739,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1771,18 +1801,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1791,28 +1821,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1864,7 +1894,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1874,11 +1904,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1907,14 +1937,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1923,7 +1953,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1940,11 +1970,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1956,14 +1986,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1973,11 +2003,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1989,14 +2019,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2006,11 +2036,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2022,14 +2052,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,11 +2069,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2055,14 +2085,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2072,14 +2102,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2088,14 +2118,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2112,7 +2142,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2128,7 +2158,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2138,14 +2168,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,14 +2184,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2171,14 +2201,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2204,14 +2234,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2227,7 +2257,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2244,7 +2274,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2270,14 +2300,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2293,7 +2323,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,7 +2333,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2326,7 +2356,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2359,7 +2389,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,11 +2399,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2385,31 +2415,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2418,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2435,11 +2465,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2458,13 +2488,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2491,7 +2521,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2524,13 +2554,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2557,13 +2587,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2574,7 +2604,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2596,15 +2626,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2616,31 +2646,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2649,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,11 +2696,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2682,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2715,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2732,11 +2762,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2748,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2795,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,14 +2828,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,14 +2844,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,14 +2861,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,7 +2894,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2887,7 +2917,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,14 +2927,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2913,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2937,7 +2967,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2953,7 +2983,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,14 +2993,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2979,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,14 +3026,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3029,11 +3059,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3045,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3062,11 +3092,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3078,14 +3108,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3095,14 +3125,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3118,7 +3148,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3128,14 +3158,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3144,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3161,11 +3191,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3177,31 +3207,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3217,21 +3247,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3243,31 +3273,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3276,31 +3306,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3309,31 +3339,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3342,28 +3372,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3375,20 +3405,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3396,10 +3426,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3408,31 +3438,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3441,66 +3471,198 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>209</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>40</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>67</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>203</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3241.5549999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>206</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>207</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>208</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>211</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>212</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>67</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>213</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>214</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>40</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>67</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>14</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>215</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>40</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>67</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>51</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3930.5549999999998</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>216</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>217</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>218</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3844,10 +4006,30 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
   </si>
   <si>
     <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
@@ -2026,7 +2038,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2076,7 +2088,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2092,7 +2104,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2142,7 +2154,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2158,7 +2170,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2184,14 +2196,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2201,14 +2213,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2217,14 +2229,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2241,7 +2253,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2257,7 +2269,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2290,7 +2302,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,11 +2345,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2481,28 +2493,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
@@ -2514,28 +2526,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2580,7 +2592,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2597,11 +2609,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2613,28 +2625,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2679,31 +2691,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2745,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,7 +2807,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2811,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,11 +2840,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2877,7 +2889,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,11 +3005,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,7 +3071,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3082,7 +3094,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,11 +3104,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3214,7 +3226,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,11 +3236,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,28 +3351,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3389,11 +3401,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3488,14 +3500,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>201</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3504,7 +3516,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3554,11 +3566,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3603,7 +3615,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3620,49 +3632,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3930.5549999999998</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>216</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>217</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>218</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>219</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>40</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>67</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>51</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3963.5549999999998</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>220</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>221</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>222</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4026,10 +4071,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -671,7 +671,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:17 PM</t>
+    <t>Tuesday, 10 June, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -569,6 +578,15 @@
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -599,6 +617,15 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -671,7 +698,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:26 PM</t>
+    <t>Tuesday, 10 June, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1362,7 +1389,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1371,14 +1398,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1388,14 +1415,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1404,14 +1431,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1428,7 +1455,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1461,7 +1488,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1477,7 +1504,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1494,7 +1521,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1510,7 +1537,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1527,7 +1554,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1543,7 +1570,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1553,11 +1580,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1569,14 +1596,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1586,11 +1613,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1602,14 +1629,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1619,14 +1646,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1635,14 +1662,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1659,7 +1686,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1708,7 +1735,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1718,14 +1745,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1734,14 +1761,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1751,14 +1778,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1767,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1784,14 +1811,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1807,7 +1834,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1817,14 +1844,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1833,31 +1860,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1866,28 +1893,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1916,11 +1943,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1972,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2005,7 +2032,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2015,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2048,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2104,7 +2131,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2114,14 +2141,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2154,7 +2181,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2170,7 +2197,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2236,7 +2263,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2269,7 +2296,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2319,7 +2346,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2378,14 +2405,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2401,7 +2428,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2418,7 +2445,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2434,7 +2461,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2467,7 +2494,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2500,7 +2527,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2514,10 +2541,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,31 +2553,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2566,13 +2593,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2583,7 +2610,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2599,7 +2626,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2616,7 +2643,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,7 +2676,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2665,13 +2692,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2682,7 +2709,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2698,13 +2725,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2715,7 +2742,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2731,24 +2758,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2797,7 +2824,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2863,7 +2890,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2922,7 +2949,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2939,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2972,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2995,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3012,7 +3039,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3028,7 +3055,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3038,11 +3065,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3120,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3144,7 +3171,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3160,7 +3187,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3170,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3207,10 +3234,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3309,7 +3336,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3325,7 +3352,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3342,7 +3369,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3358,7 +3385,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3368,7 +3395,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3391,13 +3418,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3405,10 +3432,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3417,31 +3444,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,31 +3477,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,31 +3510,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,31 +3543,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3549,31 +3576,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3582,31 +3609,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3615,31 +3642,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3648,66 +3675,165 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3963.5549999999998</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>220</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>221</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
-        <v>222</v>
-      </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>224</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>225</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>70</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>226</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>227</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>43</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>70</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>14</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>228</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>43</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>70</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>54</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4114.0550000000003</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>229</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>230</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>231</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4076,10 +4202,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -569,6 +569,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -686,9 +698,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -698,7 +707,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:40 PM</t>
+    <t>Tuesday, 10 June, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3220,7 +3229,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3336,7 +3345,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,28 +3519,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>214</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,7 +3684,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3725,11 +3734,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3774,7 +3783,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3791,49 +3800,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>231</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>43</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>70</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>54</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4114.0550000000003</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>229</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>230</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>231</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4145.0550000000003</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>232</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>233</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>234</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4217,10 +4259,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -707,7 +707,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:45 PM</t>
+    <t>Tuesday, 10 June, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -398,6 +398,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -416,6 +428,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
@@ -572,9 +596,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -674,7 +695,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>حلاوة حرير</t>
@@ -707,7 +728,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:46 PM</t>
+    <t>Tuesday, 10 June, 2025 6:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,14 +2567,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2595,31 +2616,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2645,11 +2666,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2661,28 +2682,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2711,11 +2732,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2727,28 +2748,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2760,31 +2781,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2793,7 +2814,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2806,15 +2827,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2826,31 +2847,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2859,14 +2880,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,11 +2897,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,11 +2963,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3041,14 +3062,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,11 +3095,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3161,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3206,11 +3227,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3338,11 +3359,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3371,11 +3392,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3394,7 +3415,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3411,7 +3432,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3427,7 +3448,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3470,11 +3491,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3519,14 +3540,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3536,14 +3557,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,31 +3573,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,28 +3606,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3618,7 +3639,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3635,14 +3656,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3672,10 +3693,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3684,7 +3705,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>218</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3783,7 +3804,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3800,11 +3821,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3816,14 +3837,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3833,49 +3854,115 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>237</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>43</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>70</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>14</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>238</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>43</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>70</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>54</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>55</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4145.0550000000003</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>232</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>233</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>234</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4191.335</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>239</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>240</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>241</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4264,10 +4351,20 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -161,6 +161,15 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -191,6 +200,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -389,6 +407,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>ESLIZEPINE 400 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>342.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
     <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -542,6 +569,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>NEXIUM 20MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>332.00</t>
+  </si>
+  <si>
+    <t>332.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -551,6 +587,15 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>OPONOV 20 TABLETS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
@@ -614,9 +659,6 @@
     <t>VOLTAREN 100MG 10 SUPP.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -653,9 +695,6 @@
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>67.5000</t>
   </si>
   <si>
@@ -728,7 +767,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 6:54 PM</t>
+    <t>Tuesday, 10 June, 2025 7:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1749,7 +1788,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1798,7 +1837,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1808,14 +1847,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1824,14 +1863,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1841,14 +1880,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1874,14 +1913,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1890,14 +1929,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1907,11 +1946,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1923,31 +1962,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1956,14 +1995,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1973,14 +2012,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1989,28 +2028,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2039,11 +2078,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2055,14 +2094,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2095,7 +2134,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2105,14 +2144,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2121,14 +2160,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2161,7 +2200,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2171,14 +2210,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2187,14 +2226,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2204,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2220,14 +2259,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2237,11 +2276,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2253,14 +2292,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2270,11 +2309,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2286,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2303,14 +2342,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2319,14 +2358,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2343,7 +2382,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2359,7 +2398,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2369,14 +2408,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2402,14 +2441,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2418,14 +2457,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2435,14 +2474,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2458,7 +2497,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2475,7 +2514,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2484,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2501,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2524,7 +2563,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2534,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2550,14 +2589,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2567,11 +2606,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2583,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2600,11 +2639,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2616,14 +2655,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2633,14 +2672,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2649,14 +2688,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2666,11 +2705,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2689,13 +2728,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2706,7 +2745,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2722,7 +2761,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,14 +2771,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2748,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2765,11 +2804,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2788,13 +2827,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2821,13 +2860,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2854,13 +2893,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2871,7 +2910,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2887,7 +2926,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2897,11 +2936,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2913,31 +2952,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,31 +2985,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2979,14 +3018,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,11 +3035,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3012,14 +3051,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3029,14 +3068,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3045,7 +3084,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3062,14 +3101,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3078,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,14 +3134,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3111,14 +3150,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,14 +3167,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3144,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3161,11 +3200,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3177,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,11 +3233,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3210,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3227,14 +3266,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3243,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3260,14 +3299,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3276,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3293,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3309,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3326,11 +3365,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3342,14 +3381,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3359,11 +3398,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3375,14 +3414,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3392,11 +3431,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3408,14 +3447,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3425,14 +3464,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3441,14 +3480,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3458,11 +3497,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3474,14 +3513,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3491,14 +3530,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3507,14 +3546,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3524,11 +3563,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3540,14 +3579,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3557,11 +3596,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3573,14 +3612,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3590,14 +3629,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3606,14 +3645,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3623,14 +3662,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3639,31 +3678,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3679,21 +3718,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3705,31 +3744,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3745,24 +3784,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3771,31 +3810,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3804,7 +3843,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3817,15 +3856,15 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3837,28 +3876,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3870,7 +3909,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3883,18 +3922,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3903,66 +3942,231 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4191.335</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>239</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>43</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>76</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>244</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>246</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>43</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>76</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>240</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>241</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>248</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>149</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>76</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>249</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>43</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>76</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>14</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>43</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>76</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>57</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4955.335</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>252</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>253</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>254</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4361,10 +4565,35 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>AVARA 20MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>483.00</t>
   </si>
   <si>
@@ -398,6 +407,12 @@
     <t>4.9500</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -542,6 +557,15 @@
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -596,6 +620,9 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
@@ -629,6 +656,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>TRENTAL 400 SR 20 F.C. TAB</t>
   </si>
   <si>
@@ -692,6 +728,15 @@
     <t>169.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -767,7 +812,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 7:00 PM</t>
+    <t>Tuesday, 10 June, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1682,14 +1727,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1698,14 +1743,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1715,11 +1760,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1738,7 +1783,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1748,14 +1793,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1764,14 +1809,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1821,7 +1866,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1870,7 +1915,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1880,14 +1925,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1896,14 +1941,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1920,7 +1965,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1936,7 +1981,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1946,14 +1991,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1962,14 +2007,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1979,7 +2024,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2002,7 +2047,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2012,11 +2057,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2028,31 +2073,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2061,28 +2106,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2094,14 +2139,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2111,11 +2156,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2127,14 +2172,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2167,7 +2212,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2200,7 +2245,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,14 +2255,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2226,14 +2271,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2243,14 +2288,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2259,14 +2304,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2299,7 +2344,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2309,14 +2354,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2325,14 +2370,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2349,7 +2394,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2365,7 +2410,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,14 +2420,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2391,14 +2436,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,14 +2453,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2431,7 +2476,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,14 +2486,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>118</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2464,7 +2509,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,14 +2519,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2490,14 +2535,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2514,7 +2559,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2523,14 +2568,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2585,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2556,14 +2601,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,7 +2618,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2596,7 +2641,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2606,11 +2651,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2622,14 +2667,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,14 +2684,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2655,14 +2700,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,14 +2717,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2688,14 +2733,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2705,14 +2750,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2721,14 +2766,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2738,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2771,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,14 +2832,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2804,14 +2849,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2820,20 +2865,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2844,7 +2889,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2860,7 +2905,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2874,7 +2919,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2886,28 +2931,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2919,14 +2964,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,11 +2981,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2952,28 +2997,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2985,31 +3030,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,7 +3063,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3031,15 +3076,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3051,31 +3096,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3084,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3101,11 +3146,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3117,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,14 +3179,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3150,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3167,11 +3212,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3190,24 +3235,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>121</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3216,14 +3261,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3249,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3282,14 +3327,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,14 +3344,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3322,7 +3367,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3377,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3348,7 +3393,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3365,11 +3410,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3381,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3421,7 +3466,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3476,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,11 +3509,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3480,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3542,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3530,11 +3575,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3546,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3579,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3596,11 +3641,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3619,7 +3664,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3645,14 +3690,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3685,7 +3730,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3702,7 +3747,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3718,7 +3763,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,11 +3773,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3744,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,11 +3806,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3777,14 +3822,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,14 +3839,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3827,14 +3872,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,31 +3888,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,28 +3921,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3916,13 +3961,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3933,7 +3978,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3949,24 +3994,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3975,31 +4020,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>238</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4008,28 +4053,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4041,28 +4086,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4074,28 +4119,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4107,66 +4152,264 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>57</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4955.335</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>252</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>257</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>63</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>79</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>32</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>258</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>41</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>79</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>259</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>253</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>254</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>261</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>41</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>79</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>255</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>154</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>79</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>264</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>41</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>79</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>14</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>41</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>79</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>60</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5328.46</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>267</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>268</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>269</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4590,10 +4833,40 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 7:20 PM</t>
+    <t>Tuesday, 10 June, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -812,7 +812,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 7:28 PM</t>
+    <t>Tuesday, 10 June, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -554,6 +563,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -620,6 +635,15 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 24 F.C. TAB</t>
   </si>
   <si>
@@ -785,6 +809,15 @@
     <t>حلاوة حرير</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -798,6 +831,9 @@
   </si>
   <si>
     <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -1717,7 +1753,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1727,11 +1763,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1743,14 +1779,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1760,14 +1796,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1776,14 +1812,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1793,11 +1829,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1816,7 +1852,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1826,14 +1862,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1842,14 +1878,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1899,7 +1935,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1948,7 +1984,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1958,14 +1994,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1974,14 +2010,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1998,7 +2034,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2014,7 +2050,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,14 +2060,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2040,14 +2076,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2057,7 +2093,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2080,7 +2116,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2090,11 +2126,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2106,31 +2142,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2139,28 +2175,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2172,14 +2208,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2189,11 +2225,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2205,14 +2241,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2245,7 +2281,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2278,7 +2314,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2288,14 +2324,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2304,14 +2340,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2357,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2373,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2377,7 +2413,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,14 +2423,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2403,14 +2439,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2427,7 +2463,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2443,7 +2479,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2453,14 +2489,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2469,14 +2505,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,14 +2522,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2509,7 +2545,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2555,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2542,7 +2578,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2552,14 +2588,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2568,14 +2604,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2592,7 +2628,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2601,14 +2637,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2618,14 +2654,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2634,14 +2670,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2651,11 +2687,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2667,14 +2703,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,7 +2720,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2707,7 +2743,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2740,7 +2776,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2757,7 +2793,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2773,7 +2809,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2783,14 +2819,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2799,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,14 +2852,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2839,7 +2875,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2849,14 +2885,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2872,7 +2908,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2882,11 +2918,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2898,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2919,10 +2955,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2931,28 +2967,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2971,13 +3007,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3004,7 +3040,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3070,13 +3106,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3103,13 +3139,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3120,7 +3156,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3136,24 +3172,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3179,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3202,7 +3238,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3212,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,28 +3264,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3261,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3314,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3294,24 +3330,24 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3334,7 +3370,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3360,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3377,14 +3413,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,7 +3446,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3433,7 +3469,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3443,14 +3479,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3459,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3476,11 +3512,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3492,14 +3528,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3545,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,11 +3578,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3558,14 +3594,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3575,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3591,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3624,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3648,7 +3684,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3664,7 +3700,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3674,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3690,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,11 +3743,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3723,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3756,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3809,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3806,11 +3842,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3822,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3839,11 +3875,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3855,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3872,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3905,11 +3941,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3921,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3938,11 +3974,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3954,14 +3990,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3971,11 +4007,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3987,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4004,7 +4040,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4027,7 +4063,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4044,7 +4080,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4060,7 +4096,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4070,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4093,24 +4129,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4126,24 +4162,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4152,31 +4188,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,31 +4221,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,31 +4254,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4251,31 +4287,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,31 +4320,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4317,28 +4353,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4350,66 +4386,231 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5328.46</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>267</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>268</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>269</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>272</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>44</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>82</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>263</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>274</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>82</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>23</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>275</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>157</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>82</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>276</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>277</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>44</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>82</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>14</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>44</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>82</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>63</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5522.9899999999998</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>279</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>280</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>281</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4863,10 +5064,35 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -278,6 +278,18 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
@@ -320,9 +332,6 @@
     <t>25:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>33.0000</t>
   </si>
   <si>
@@ -374,9 +383,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
@@ -515,6 +521,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
     <t>ICANDRA 50 MG 30 TAB.</t>
   </si>
   <si>
@@ -848,7 +863,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 7:38 PM</t>
+    <t>Tuesday, 10 June, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2265,7 +2280,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2281,7 +2296,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2291,11 +2306,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2324,11 +2339,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2357,14 +2372,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2373,14 +2388,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2413,7 +2428,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2423,7 +2438,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2446,7 +2461,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2496,7 +2511,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2512,7 +2527,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2537,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,14 +2570,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2578,7 +2593,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,14 +2603,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2604,14 +2619,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2621,14 +2636,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2654,14 +2669,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2670,14 +2685,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,14 +2702,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2710,7 +2725,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2720,7 +2735,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2743,7 +2758,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2786,11 +2801,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2802,7 +2817,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,14 +2867,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2868,14 +2883,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,14 +2900,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2901,14 +2916,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2951,11 +2966,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,14 +2999,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3007,13 +3022,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3021,7 +3036,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3033,28 +3048,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,11 +3098,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,11 +3131,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3132,28 +3147,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3165,31 +3180,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3198,7 +3213,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3211,15 +3226,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3231,31 +3246,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,11 +3296,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3304,7 +3319,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3330,28 +3345,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3396,24 +3411,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3436,7 +3451,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,7 +3527,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3535,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3561,7 +3576,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3578,11 +3593,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,14 +3692,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3733,7 +3748,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3791,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,11 +3824,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,11 +3857,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3923,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3931,7 +3946,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,11 +3989,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,11 +4022,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,14 +4055,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4088,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,7 +4104,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4106,11 +4121,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4162,7 +4177,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4195,7 +4210,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,31 +4236,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4267,15 +4282,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4287,7 +4302,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4304,14 +4319,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4327,7 +4342,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4341,10 +4356,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,14 +4368,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,14 +4385,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4386,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>261</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,7 +4451,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4459,7 +4474,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,14 +4484,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,14 +4500,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,11 +4517,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4518,14 +4533,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,11 +4550,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4551,14 +4566,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4568,49 +4583,115 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>282</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>44</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>82</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>14</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>283</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>44</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>82</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>63</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>64</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5522.9899999999998</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>279</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>280</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>281</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5547.2449999999999</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>284</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>285</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>286</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5089,10 +5170,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -863,7 +863,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 7:43 PM</t>
+    <t>Tuesday, 10 June, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -347,13 +347,10 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
@@ -380,7 +377,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DIMICAP FACIAL WASH 250 ML</t>
@@ -674,9 +674,6 @@
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -845,7 +842,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
@@ -863,7 +860,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 7:55 PM</t>
+    <t>Tuesday, 10 June, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2494,7 +2491,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,14 +2501,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,7 +2517,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2537,11 +2534,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2553,14 +2550,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2570,11 +2567,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2586,14 +2583,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2603,14 +2600,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>90</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2768,7 +2765,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2857,7 +2854,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3036,7 +3033,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3781,7 +3778,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3807,7 +3804,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3828,7 +3825,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3840,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,11 +3854,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3873,7 +3870,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3890,11 +3887,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3906,7 +3903,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3923,11 +3920,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3939,7 +3936,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3956,11 +3953,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3972,7 +3969,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3993,7 +3990,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4005,7 +4002,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4038,7 +4035,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4059,7 +4056,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4071,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,11 +4085,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4104,7 +4101,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4121,11 +4118,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4137,7 +4134,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4154,11 +4151,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4170,7 +4167,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4187,11 +4184,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4203,7 +4200,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4224,7 +4221,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4236,7 +4233,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4253,11 +4250,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4269,14 +4266,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4290,7 +4287,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4302,7 +4299,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4319,7 +4316,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4335,14 +4332,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4368,7 +4365,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4385,11 +4382,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>86</v>
@@ -4401,7 +4398,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4434,7 +4431,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4451,11 +4448,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4467,7 +4464,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4484,14 +4481,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,7 +4497,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4517,14 +4514,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,7 +4530,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4566,7 +4563,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4583,7 +4580,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4599,7 +4596,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4632,7 +4629,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4661,13 +4658,13 @@
     </row>
     <row r="103" ht="24.75" customHeight="1">
       <c r="P103" s="13">
-        <v>5547.2449999999999</v>
+        <v>5574.0050000000001</v>
       </c>
       <c r="Q103" s="13"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
       <c t="s" r="A104" s="14">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -4675,13 +4672,13 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c t="s" r="G104" s="15">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="16"/>
       <c t="s" r="K104" s="17">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L104" s="17"/>
       <c r="M104" s="17"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -860,7 +860,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 7:59 PM</t>
+    <t>Tuesday, 10 June, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -80,774 +80,792 @@
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>80.00</t>
   </si>
   <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>ANSELACOX 90MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>103.9500</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>AVARA 20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>483.00</t>
+  </si>
+  <si>
+    <t>483.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BORGASONE 0.1% OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CELEBORG 200 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CHICKS OMEGA D3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>155.0000</t>
+  </si>
+  <si>
+    <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>-50.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ESLIZEPINE 400 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>342.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>MUPIRAX 2% OINT. 10 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>NEXIUM 20MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>332.00</t>
+  </si>
+  <si>
+    <t>332.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
+    <t>OPONOV 20 TABLETS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PANGESTAZOL 40MG 14 TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حلاوة حرير</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
     <t>80.0000</t>
   </si>
   <si>
-    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>AMARYL 3 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 250MG 20 TAB</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>ANSELACOX 90MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>315.00</t>
-  </si>
-  <si>
-    <t>103.9500</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>AVARA 20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>483.00</t>
-  </si>
-  <si>
-    <t>483.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BORGASONE 0.1% OINT. 20 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CELEBORG 200 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CHICKS OMEGA D3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>155.00</t>
-  </si>
-  <si>
-    <t>155.0000</t>
-  </si>
-  <si>
-    <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>COBAL 500MCG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>COLD FREE 20 TAB.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>COLOSALAZINE-EC 500MG 20 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>-50.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ESLIZEPINE 400 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>342.00</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:8</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>91.5750</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>MUPIRAX 2% OINT. 10 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>NEXIUM 20MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>332.00</t>
-  </si>
-  <si>
-    <t>332.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>136.0000</t>
-  </si>
-  <si>
-    <t>OPONOV 20 TABLETS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
-  </si>
-  <si>
-    <t>PANGESTAZOL 40MG 14 TABS.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>WHITON CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>ZADOGLOBIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ZINCTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>حلاوة حرير</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -860,7 +878,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:07 PM</t>
+    <t>Tuesday, 10 June, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1567,7 +1585,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1577,14 +1595,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1593,7 +1611,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1610,11 +1628,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1626,7 +1644,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1643,11 +1661,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1659,7 +1677,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1676,11 +1694,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1692,7 +1710,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1709,11 +1727,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1725,7 +1743,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1742,11 +1760,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1758,7 +1776,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1775,11 +1793,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1791,14 +1809,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1841,11 +1859,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1864,7 +1882,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2062,7 +2080,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2105,7 +2123,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2194,7 +2212,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2524,7 +2542,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2623,7 +2641,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2821,7 +2839,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3052,7 +3070,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3250,7 +3268,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3264,7 +3282,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3276,7 +3294,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3330,7 +3348,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>90</v>
@@ -3342,7 +3360,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3363,7 +3381,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3375,7 +3393,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3408,7 +3426,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3425,11 +3443,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3458,7 +3476,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3474,7 +3492,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3495,7 +3513,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3507,7 +3525,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3528,7 +3546,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3540,7 +3558,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3557,11 +3575,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3573,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3590,11 +3608,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3606,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3623,11 +3641,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>48</v>
@@ -3639,14 +3657,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3656,11 +3674,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3672,7 +3690,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3689,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3705,7 +3723,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3738,7 +3756,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3755,11 +3773,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3771,7 +3789,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3792,7 +3810,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3804,7 +3822,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3821,11 +3839,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3837,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3854,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3870,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3887,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3903,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3920,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3936,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3953,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3969,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3986,7 +4004,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4009,7 +4027,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4019,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4035,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4052,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4075,7 +4093,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4085,14 +4103,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4101,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4118,14 +4136,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4134,14 +4152,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4151,14 +4169,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4167,7 +4185,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4184,11 +4202,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4200,14 +4218,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4217,14 +4235,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4240,7 +4258,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4273,7 +4291,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4283,14 +4301,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4299,31 +4317,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4345,15 +4363,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4365,14 +4383,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4382,14 +4400,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4405,7 +4423,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4415,14 +4433,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4431,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4448,14 +4466,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4464,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4481,14 +4499,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>265</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4497,14 +4515,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4514,14 +4532,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4537,7 +4555,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4547,14 +4565,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>24</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4563,14 +4581,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4580,14 +4598,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4596,14 +4614,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4613,11 +4631,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4629,14 +4647,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4646,49 +4664,115 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>287</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>23</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>82</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>14</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>23</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>82</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>63</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>64</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5574.0050000000001</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>283</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>284</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>285</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5789.0050000000001</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>289</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>290</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>291</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5177,10 +5261,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -581,6 +581,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LUNNER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -668,6 +677,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -872,13 +890,16 @@
     <t>30.00</t>
   </si>
   <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:09 PM</t>
+    <t>Tuesday, 10 June, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3400,7 +3421,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3426,28 +3447,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3466,21 +3487,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3499,7 +3520,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,11 +3530,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3525,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,7 +3579,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3575,11 +3596,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3591,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,7 +3629,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3648,7 +3669,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,7 +3702,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3697,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3714,7 +3735,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3730,7 +3751,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,11 +3761,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3756,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3796,7 +3817,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,11 +3827,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3822,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3855,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3893,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3895,7 +3916,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3905,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3921,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3961,7 +3982,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3978,7 +3999,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3994,7 +4015,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4011,7 +4032,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4027,7 +4048,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,11 +4124,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4119,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4157,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4176,7 +4197,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4192,7 +4213,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4202,14 +4223,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>57</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4242,7 +4263,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4291,7 +4312,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,14 +4338,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4334,11 +4355,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4350,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4367,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4390,13 +4411,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4404,10 +4425,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4416,28 +4437,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4449,7 +4470,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4466,14 +4487,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4482,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4503,10 +4524,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4532,14 +4553,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4548,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>270</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4588,7 +4609,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,14 +4619,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4614,14 +4635,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,14 +4652,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4647,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4680,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,11 +4718,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4713,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4730,49 +4751,148 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>293</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>159</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>82</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>14</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>294</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>23</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>82</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>14</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>295</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>23</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>82</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>63</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>64</v>
       </c>
-      <c t="s" r="Q104" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5789.0050000000001</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>289</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>290</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>291</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5966.0050000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>296</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>297</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>298</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5271,10 +5391,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -269,9 +281,6 @@
     <t>CIPROCIN 0.3% EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -455,6 +464,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -662,9 +680,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 24 F.C. TAB</t>
   </si>
   <si>
@@ -899,7 +914,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:11 PM</t>
+    <t>Tuesday, 10 June, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2217,7 +2232,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2233,13 +2248,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2250,7 +2265,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2266,13 +2281,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2299,7 +2314,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2309,14 +2324,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2398,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2431,7 +2446,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2497,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,7 +2522,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2530,7 +2545,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2547,7 +2562,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2563,7 +2578,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2580,7 +2595,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2596,7 +2611,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2621,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,14 +2637,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,14 +2654,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2662,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2687,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2695,7 +2710,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,14 +2720,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2745,7 +2760,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2787,14 +2802,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2819,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2820,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,7 +2852,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2860,7 +2875,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2893,7 +2908,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2910,7 +2925,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2926,7 +2941,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2951,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2952,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3009,7 +3024,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3035,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3051,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3091,24 +3106,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3117,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3157,13 +3172,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3190,7 +3205,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3223,7 +3238,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3256,13 +3271,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3289,13 +3304,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3303,10 +3318,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3315,7 +3330,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3328,15 +3343,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3348,31 +3363,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3398,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,11 +3479,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3480,31 +3495,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3553,21 +3568,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3627,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,14 +3644,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3645,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3751,7 +3766,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3768,7 +3783,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3784,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3809,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3876,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,11 +3908,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3909,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3926,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3975,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4041,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4147,7 +4162,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4173,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4246,7 +4261,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,14 +4271,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4272,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,7 +4353,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4355,11 +4370,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4371,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4411,7 +4426,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4444,7 +4459,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4454,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,31 +4485,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4516,15 +4531,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4536,7 +4551,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4549,18 +4564,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4576,13 +4591,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4590,10 +4605,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,31 +4617,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,31 +4650,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>276</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,31 +4683,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4708,24 +4723,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4734,31 +4749,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4767,28 +4782,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4800,28 +4815,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4833,66 +4848,132 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>299</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>23</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>86</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>14</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>300</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>23</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>86</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>63</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>64</v>
       </c>
-      <c t="s" r="Q107" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5966.0050000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>296</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>297</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>298</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6058.0050000000001</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>301</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>302</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>303</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5406,10 +5487,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -287,6 +287,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>COBAL 500MCG 30 F.C.TAB</t>
   </si>
   <si>
@@ -914,7 +923,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:22 PM</t>
+    <t>Tuesday, 10 June, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2347,7 +2356,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2357,14 +2366,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2373,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2406,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2446,7 +2455,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2479,7 +2488,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2545,7 +2554,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2555,7 +2564,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2578,7 +2587,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2595,7 +2604,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2611,7 +2620,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2628,7 +2637,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2644,7 +2653,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2654,14 +2663,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2710,7 +2719,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2793,7 +2802,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,11 +2861,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2885,7 +2894,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2908,7 +2917,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2941,7 +2950,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2958,7 +2967,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2974,7 +2983,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2991,7 +3000,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3007,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3073,7 +3082,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3106,7 +3115,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,11 +3125,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3153,10 +3162,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3165,28 +3174,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3205,13 +3214,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3238,7 +3247,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3271,7 +3280,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3337,13 +3346,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3370,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3384,10 +3393,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,31 +3405,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3469,7 +3478,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3488,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3535,7 +3544,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,28 +3570,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3601,21 +3610,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3634,7 +3643,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,11 +3653,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3686,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,7 +3702,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,7 +3752,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3783,7 +3792,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3816,7 +3825,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3832,7 +3841,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3846,10 +3855,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,11 +3884,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3931,7 +3940,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3964,7 +3973,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>82</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4080,7 +4089,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4096,7 +4105,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4113,7 +4122,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4129,7 +4138,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4162,7 +4171,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4179,7 +4188,7 @@
         <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4195,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>57</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4393,7 +4402,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4410,7 +4419,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4426,7 +4435,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4443,7 +4452,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4459,7 +4468,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,11 +4478,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,7 +4511,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4525,7 +4534,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>96</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>143</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4558,21 +4567,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4610,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4657,7 +4666,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,14 +4709,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>33</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4723,7 +4732,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4740,7 +4749,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>281</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>48</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4841,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>24</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>207</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,11 +4874,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4914,7 +4923,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4931,49 +4940,82 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>303</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>23</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>86</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>63</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>64</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6058.0050000000001</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>301</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>302</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>303</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6111.0050000000001</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>304</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>305</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>306</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5497,10 +5539,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
@@ -299,9 +311,6 @@
     <t>COBAL 500MCG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -413,13 +422,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>63.8400</t>
+    <t>159.8400</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -632,12 +641,12 @@
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -695,12 +704,6 @@
     <t>PANGESTAZOL 40MG 14 TABS.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -713,6 +716,21 @@
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -923,7 +941,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:28 PM</t>
+    <t>Tuesday, 10 June, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1747,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,7 +1773,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1772,11 +1790,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1838,14 +1856,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1871,11 +1889,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1904,14 +1922,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1920,14 +1938,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1937,11 +1955,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1977,7 +1995,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1993,7 +2011,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -2019,7 +2037,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2052,7 +2070,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2069,11 +2087,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2109,7 +2127,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,11 +2219,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2241,7 +2259,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2274,7 +2292,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2290,13 +2308,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2307,7 +2325,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2323,21 +2341,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2366,11 +2384,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2406,7 +2424,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2422,7 +2440,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2488,7 +2506,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2521,7 +2539,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2549,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,14 +2582,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2587,7 +2605,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2597,7 +2615,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2620,7 +2638,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2637,7 +2655,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2653,7 +2671,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2670,7 +2688,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2686,7 +2704,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,14 +2714,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2712,14 +2730,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,14 +2747,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2752,7 +2770,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2785,7 +2803,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2835,7 +2853,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,11 +2912,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2910,14 +2928,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,7 +2945,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2950,7 +2968,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2983,7 +3001,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3000,7 +3018,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3016,7 +3034,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3033,7 +3051,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3049,7 +3067,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3115,7 +3133,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,14 +3143,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3148,7 +3166,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,11 +3176,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3174,14 +3192,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3195,10 +3213,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3207,28 +3225,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3247,13 +3265,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3280,7 +3298,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3313,7 +3331,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3379,13 +3397,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3412,13 +3430,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3426,10 +3444,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,31 +3456,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3511,7 +3529,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3537,14 +3555,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3577,7 +3595,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,28 +3621,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3643,21 +3661,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3676,7 +3694,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3735,7 +3753,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3752,11 +3770,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,7 +3803,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3825,7 +3843,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,7 +3876,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3874,7 +3892,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3888,10 +3906,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,11 +3935,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3968,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3973,7 +3991,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,11 +4034,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4039,7 +4057,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4166,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4164,14 +4182,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,11 +4232,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,7 +4281,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4280,11 +4298,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4303,7 +4321,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4336,7 +4354,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,7 +4364,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4369,7 +4387,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,11 +4397,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4430,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,7 +4446,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4445,11 +4463,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,11 +4496,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4494,14 +4512,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,11 +4529,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4527,14 +4545,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,14 +4562,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,14 +4578,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,14 +4595,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,31 +4611,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>225</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,31 +4644,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4677,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>149</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4710,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4732,21 +4750,21 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4758,7 +4776,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4771,18 +4789,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>284</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,31 +4809,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,28 +4842,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4857,31 +4875,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4897,24 +4915,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,28 +4941,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4956,66 +4974,165 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6111.0050000000001</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>304</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>305</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>306</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>307</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>171</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>90</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>14</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>23</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>90</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>14</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>23</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>90</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>67</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6634.0050000000001</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>310</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>311</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>312</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5544,10 +5661,25 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>93.00</t>
   </si>
   <si>
-    <t>30.6900</t>
+    <t>61.3800</t>
   </si>
   <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
@@ -299,15 +299,6 @@
     <t>21.0000</t>
   </si>
   <si>
-    <t>CIPROCIN 500MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
     <t>COBAL 500MCG 30 F.C.TAB</t>
   </si>
   <si>
@@ -494,13 +485,16 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:8</t>
+    <t>2:6</t>
   </si>
   <si>
     <t>108.00</t>
   </si>
   <si>
-    <t>17.2800</t>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
@@ -683,6 +677,12 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>OCUSEELLERGE 0.05% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>OPONOV 20 TABLETS</t>
   </si>
   <si>
@@ -692,6 +692,9 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -722,6 +725,12 @@
     <t>69.00</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -929,9 +938,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -941,7 +947,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:29 PM</t>
+    <t>Tuesday, 10 June, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1885,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1896,7 +1902,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2407,7 +2413,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2424,7 +2430,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2440,7 +2446,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2450,14 +2456,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2466,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2506,7 +2512,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2539,7 +2545,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2549,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2565,14 +2571,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2582,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2605,7 +2611,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2615,7 +2621,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2638,7 +2644,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2655,7 +2661,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2671,7 +2677,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2688,7 +2694,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2704,7 +2710,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2714,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2730,14 +2736,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2770,7 +2776,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2780,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2803,7 +2809,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2813,14 +2819,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2853,7 +2859,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2862,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2879,14 +2885,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2895,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2912,11 +2918,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2945,7 +2951,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2968,7 +2974,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3001,7 +3007,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3018,7 +3024,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3034,7 +3040,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3051,7 +3057,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3067,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3077,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3093,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3110,14 +3116,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3143,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3176,11 +3182,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3209,14 +3215,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3232,13 +3238,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3246,7 +3252,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3258,28 +3264,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3308,11 +3314,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3341,11 +3347,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3357,7 +3363,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3374,11 +3380,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3390,28 +3396,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3423,14 +3429,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3440,14 +3446,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3463,24 +3469,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3489,14 +3495,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3506,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3539,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3562,7 +3568,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3572,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3588,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3605,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3621,28 +3627,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3654,31 +3660,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3704,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3727,7 +3733,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3737,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3770,7 +3776,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3793,7 +3799,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3803,11 +3809,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3819,7 +3825,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3836,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3852,7 +3858,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3869,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3925,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3935,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3951,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3968,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3991,7 +3997,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4001,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4024,7 +4030,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4034,11 +4040,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4067,11 +4073,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4090,7 +4096,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,11 +4106,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4133,11 +4139,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4149,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4166,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4199,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4232,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4281,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4298,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4397,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4420,7 +4426,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4430,11 +4436,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4479,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4545,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4562,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4578,7 +4584,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4595,11 +4601,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4611,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4628,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4661,11 +4667,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4694,14 +4700,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4710,31 +4716,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4743,28 +4749,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4776,7 +4782,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4793,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4809,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4830,10 +4836,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4859,14 +4865,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4875,14 +4881,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4892,14 +4898,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>290</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4908,14 +4914,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4925,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4958,14 +4964,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4991,14 +4997,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5007,14 +5013,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5024,11 +5030,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5047,7 +5053,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5057,11 +5063,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5080,7 +5086,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5090,49 +5096,115 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>23</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>90</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>14</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>311</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>23</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>90</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>67</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6634.0050000000001</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>310</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>311</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6764.9750000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>312</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>313</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>314</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5676,10 +5748,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -347,10 +347,10 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>66.0000</t>
   </si>
   <si>
     <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
@@ -839,6 +839,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8681:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>WHITON CREAM 60 GM</t>
   </si>
   <si>
@@ -857,6 +869,18 @@
     <t>94.5000</t>
   </si>
   <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 15ML</t>
+  </si>
+  <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -875,12 +899,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
@@ -917,10 +935,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -947,7 +965,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:41 PM</t>
+    <t>Tuesday, 10 June, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2595,7 +2613,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -4624,7 +4642,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,11 +4652,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4650,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4700,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4716,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4766,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4789,24 +4807,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4822,24 +4840,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,31 +4866,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4921,7 +4939,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4947,7 +4965,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4964,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>293</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5046,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,14 +5081,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5079,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,14 +5114,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5112,14 +5130,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,11 +5147,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5145,14 +5163,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5162,49 +5180,148 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>315</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>169</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>90</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>14</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>316</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>23</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>90</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>14</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>317</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>23</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>90</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>67</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6764.9750000000004</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>312</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>313</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>314</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6974.9750000000004</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>318</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>319</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>320</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5758,10 +5875,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -551,6 +551,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>GOLDEN FER-F 30 CHEW. TABS.</t>
   </si>
   <si>
@@ -581,12 +590,6 @@
     <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
   </si>
   <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -965,7 +968,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:58 PM</t>
+    <t>Tuesday, 10 June, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3355,7 +3358,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3421,13 +3424,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3454,7 +3457,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3464,14 +3467,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3480,31 +3483,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3520,7 +3523,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,14 +3533,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3566,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3579,14 +3582,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3599,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3615,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3632,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3652,21 +3655,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3678,31 +3681,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3714,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3731,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3764,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,7 +3780,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3794,11 +3797,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3810,14 +3813,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,11 +3830,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3843,7 +3846,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3860,14 +3863,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,7 +3879,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3893,14 +3896,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,7 +3912,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3926,11 +3929,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3942,14 +3945,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,11 +3962,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3982,7 +3985,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +3995,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,14 +4011,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,11 +4028,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4048,7 +4051,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,14 +4061,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4081,7 +4084,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,11 +4094,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4107,14 +4110,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,11 +4127,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4147,7 +4150,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,11 +4160,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4173,14 +4176,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,11 +4193,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4206,14 +4209,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,11 +4226,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4239,14 +4242,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,14 +4259,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,11 +4292,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4305,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4325,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4341,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4358,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4404,14 +4407,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4424,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,11 +4457,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4470,14 +4473,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4490,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4510,7 +4513,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4523,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4553,11 +4556,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4569,14 +4572,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,11 +4622,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4635,14 +4638,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,14 +4655,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4668,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,11 +4688,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4701,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4721,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4737,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4754,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4774,7 +4777,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4787,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4803,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,14 +4820,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,14 +4836,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,11 +4853,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4866,14 +4869,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4886,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4906,21 +4909,21 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>146</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4932,14 +4935,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,11 +4952,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4965,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,14 +4985,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,14 +5001,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,14 +5018,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5038,7 +5041,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,14 +5051,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,14 +5067,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,14 +5084,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5097,7 +5100,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5114,14 +5117,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>52</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,14 +5133,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,14 +5150,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>24</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5163,14 +5166,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5183,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5213,11 +5216,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5236,7 +5239,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,49 +5282,82 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>23</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>90</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>67</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6974.9750000000004</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>318</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7038.335</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>319</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
         <v>320</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>321</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5890,10 +5926,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -968,7 +968,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 8:59 PM</t>
+    <t>Tuesday, 10 June, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -761,6 +761,15 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -968,7 +977,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:03 PM</t>
+    <t>Tuesday, 10 June, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4348,7 +4357,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4381,7 +4390,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4398,7 +4407,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4414,7 +4423,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4447,7 +4456,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4464,7 +4473,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4480,7 +4489,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4490,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4589,11 +4598,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4678,7 +4687,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,14 +4697,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4744,7 +4753,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4761,7 +4770,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4777,7 +4786,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4843,7 +4852,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4886,7 +4895,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4909,7 +4918,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4935,28 +4944,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4968,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4985,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5018,14 +5027,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5041,7 +5050,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5051,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5084,14 +5093,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>37</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5107,7 +5116,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5117,14 +5126,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>310</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>52</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5199,14 +5208,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5216,11 +5225,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5232,7 +5241,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5249,11 +5258,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5298,7 +5307,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5315,49 +5324,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>321</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>23</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>90</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>67</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7038.335</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>319</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>320</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>321</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7122.335</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>322</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>323</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>324</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5931,10 +5973,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -551,6 +551,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -770,6 +779,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -797,6 +815,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -863,6 +890,9 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
     <t>WHITON CREAM 60 GM</t>
   </si>
   <si>
@@ -977,7 +1007,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:04 PM</t>
+    <t>Tuesday, 10 June, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3334,7 +3364,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3351,7 +3381,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3400,7 +3430,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3466,21 +3496,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3492,14 +3522,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,14 +3539,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3525,31 +3555,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3598,7 +3628,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3624,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3664,7 +3694,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,28 +3720,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3730,13 +3760,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3747,7 +3777,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3763,7 +3793,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,14 +3836,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3822,7 +3852,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3839,11 +3869,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3855,14 +3885,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,7 +3902,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3912,7 +3942,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,10 +3972,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3954,7 +3984,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3971,11 +4001,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3994,7 +4024,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,11 +4034,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4020,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,14 +4067,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,11 +4100,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4086,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,14 +4133,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4119,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4159,7 +4189,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,11 +4199,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4185,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,11 +4232,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4218,14 +4248,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4235,11 +4265,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4251,14 +4281,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4268,7 +4298,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4291,7 +4321,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4301,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4317,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,11 +4364,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4350,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4374,7 +4404,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4390,7 +4420,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4423,7 +4453,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4440,7 +4470,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4456,7 +4486,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4473,7 +4503,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4489,7 +4519,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4506,7 +4536,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4522,7 +4552,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,14 +4562,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4548,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4581,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4598,11 +4628,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4614,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,11 +4661,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4647,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,11 +4694,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4687,7 +4717,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4704,7 +4734,7 @@
         <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4720,7 +4750,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,11 +4760,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4746,14 +4776,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4763,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,7 +4809,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4796,11 +4826,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4812,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,11 +4859,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>107</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>108</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4845,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>23</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4866,10 +4896,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4885,7 +4915,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>226</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,11 +4958,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4944,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,11 +4991,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4977,31 +5007,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,31 +5040,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5043,31 +5073,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5076,31 +5106,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>70</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5109,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5156,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5142,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5192,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5208,14 +5238,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5225,14 +5255,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5248,7 +5278,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5258,11 +5288,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5274,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5291,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5307,7 +5337,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5324,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5340,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5357,49 +5387,181 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>328</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>169</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>90</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>227</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>329</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>169</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>90</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>14</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>330</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>23</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>90</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>14</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>331</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>23</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>90</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>67</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7122.335</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>322</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>323</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>324</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7261.835</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>332</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>333</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>334</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5978,10 +6140,30 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -941,6 +941,15 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>بامبرز رقم 5</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>400.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
   </si>
   <si>
@@ -1007,7 +1016,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:05 PM</t>
+    <t>Tuesday, 10 June, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5146,7 +5155,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5160,7 +5169,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>110</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5172,14 +5181,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,11 +5198,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5205,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,14 +5231,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5245,7 +5254,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,14 +5264,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5271,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,14 +5297,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5311,7 +5320,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5354,14 +5363,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>52</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5370,14 +5379,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,14 +5396,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,14 +5412,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,11 +5429,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5436,7 +5445,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5453,11 +5462,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5469,14 +5478,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5502,7 +5511,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5519,49 +5528,82 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>334</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>23</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>90</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>67</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q124" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7261.835</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>332</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>333</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>334</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7661.835</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>335</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>336</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>337</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6160,10 +6202,15 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -428,324 +428,324 @@
     <t>101.00</t>
   </si>
   <si>
-    <t>-50.5000</t>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ESLIZEPINE 400 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>342.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LUNNER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>MUPIRAX 2% OINT. 10 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>NEXIUM 20MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>332.00</t>
+  </si>
+  <si>
+    <t>332.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
+    <t>OCUSEELLERGE 0.05% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>OPONOV 20 TABLETS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PANGESTAZOL 40MG 14 TABS.</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
   </si>
   <si>
     <t>0:-1</t>
   </si>
   <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ESLIZEPINE 400 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>342.00</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>34.5600</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LUNNER CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>91.5750</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>MUPIRAX 2% OINT. 10 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>NEXIUM 20MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>332.00</t>
-  </si>
-  <si>
-    <t>332.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>136.0000</t>
-  </si>
-  <si>
-    <t>OCUSEELLERGE 0.05% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>OPONOV 20 TABLETS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
-  </si>
-  <si>
-    <t>PANGESTAZOL 40MG 14 TABS.</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
-  </si>
-  <si>
     <t>156.00</t>
   </si>
   <si>
@@ -914,6 +914,18 @@
     <t>XITHRONE 200 MG/5ML SUSP. 15ML</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -1016,7 +1028,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:09 PM</t>
+    <t>Tuesday, 10 June, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2911,7 +2923,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2928,7 +2940,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,7 +2949,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2958,7 +2970,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2970,7 +2982,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2991,7 +3003,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3003,7 +3015,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3036,7 +3048,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3053,11 +3065,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3069,7 +3081,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3086,11 +3098,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3102,7 +3114,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3189,7 +3201,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3234,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,11 +3263,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3267,7 +3279,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3284,7 +3296,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3300,7 +3312,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3317,11 +3329,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3333,7 +3345,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3366,7 +3378,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3383,11 +3395,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3399,7 +3411,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3416,11 +3428,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3432,7 +3444,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3449,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3465,7 +3477,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3482,11 +3494,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3498,7 +3510,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3515,11 +3527,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3531,7 +3543,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3548,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3564,7 +3576,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3581,7 +3593,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3597,7 +3609,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3647,11 +3659,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>33</v>
@@ -3663,7 +3675,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3684,7 +3696,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3696,7 +3708,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3713,11 +3725,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3729,7 +3741,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3762,7 +3774,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3779,11 +3791,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3795,7 +3807,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3812,11 +3824,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3828,7 +3840,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3845,11 +3857,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3861,7 +3873,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3882,7 +3894,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3894,7 +3906,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3915,7 +3927,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3927,7 +3939,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3944,11 +3956,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3960,7 +3972,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3977,11 +3989,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>52</v>
@@ -3993,7 +4005,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4010,11 +4022,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4026,7 +4038,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4043,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4059,7 +4071,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4080,7 +4092,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4092,7 +4104,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4109,7 +4121,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4125,7 +4137,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4158,7 +4170,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4191,7 +4203,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4208,11 +4220,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4224,7 +4236,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4245,7 +4257,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4257,7 +4269,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4274,11 +4286,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4290,7 +4302,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4311,7 +4323,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4323,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4627,7 +4639,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4905,7 +4917,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5033,14 +5045,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5061,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5078,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,11 +5111,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5115,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,14 +5144,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,28 +5160,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>145</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5181,14 +5193,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,11 +5210,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5214,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5247,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,14 +5276,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,14 +5309,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5325,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,14 +5342,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,14 +5358,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,14 +5375,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>326</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,7 +5391,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5396,14 +5408,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>52</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5441,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,11 +5474,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5478,14 +5490,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5495,11 +5507,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5511,14 +5523,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5544,7 +5556,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5561,49 +5573,82 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>338</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>23</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>90</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>67</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q125" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7661.835</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>335</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>336</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>337</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7998.835</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>339</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>340</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>341</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6207,10 +6252,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -335,585 +335,606 @@
     <t>63.00</t>
   </si>
   <si>
+    <t>83.7900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>207.8400</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ESLIZEPINE 400 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>342.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LUNNER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>MUPIRAX 2% OINT. 10 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>NEXIUM 20MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>332.00</t>
+  </si>
+  <si>
+    <t>332.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>136.0000</t>
+  </si>
+  <si>
+    <t>OCUSEELLERGE 0.05% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>OPONOV 20 TABLETS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 24 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PANGESTAZOL 40MG 14 TABS.</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>156.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TRENTAL 400 SR 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8681:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 15ML</t>
+  </si>
+  <si>
     <t>63.0000</t>
   </si>
   <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>159.8400</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ESLIZEPINE 400 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>342.00</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>34.5600</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LUNNER CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>91.5750</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>MUPIRAX 2% OINT. 10 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>NASOSTOP 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>NEXIUM 20MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>332.00</t>
-  </si>
-  <si>
-    <t>332.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>136.0000</t>
-  </si>
-  <si>
-    <t>OCUSEELLERGE 0.05% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>OPONOV 20 TABLETS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 24 F.C. TAB</t>
-  </si>
-  <si>
-    <t>PANGESTAZOL 40MG 14 TABS.</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>156.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>TERBIN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TRENTAL 400 SR 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8681:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>WHITON CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 15ML</t>
-  </si>
-  <si>
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
@@ -995,21 +1016,24 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>34:0</t>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
@@ -1028,7 +1052,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:12 PM</t>
+    <t>Tuesday, 10 June, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2593,7 +2617,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2610,7 +2634,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2907,7 +2931,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3484,24 +3508,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3510,7 +3534,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3527,11 +3551,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3543,28 +3567,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3576,14 +3600,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3593,14 +3617,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3609,31 +3633,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3675,14 +3699,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3692,14 +3716,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3708,14 +3732,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,14 +3782,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3774,28 +3798,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3807,31 +3831,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,14 +3864,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3873,14 +3897,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3906,31 +3930,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,7 +3980,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3979,7 +4003,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,7 +4029,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4022,11 +4046,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4062,7 +4086,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4078,7 +4102,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,11 +4112,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>135</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4104,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,14 +4178,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,14 +4194,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,14 +4211,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,14 +4227,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4220,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,11 +4277,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4269,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,11 +4310,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4302,14 +4326,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,11 +4343,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4335,14 +4359,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4356,7 +4380,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4368,14 +4392,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,14 +4409,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4401,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4442,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,14 +4475,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4467,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4508,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4500,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4541,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4533,14 +4557,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4574,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,14 +4607,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4599,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4632,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4665,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,11 +4706,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4698,14 +4722,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4739,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4738,7 +4762,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4771,7 +4795,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,7 +4805,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4804,7 +4828,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>30</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4830,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4871,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4863,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,11 +4904,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>61</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4896,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4929,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4962,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4995,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,11 +5036,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5028,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,11 +5069,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5061,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,7 +5118,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5111,14 +5135,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5144,14 +5168,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,14 +5201,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,7 +5217,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5206,18 +5230,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>233</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5233,13 +5257,13 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5247,10 +5271,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5259,28 +5283,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5299,7 +5323,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5316,7 +5340,7 @@
         <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5332,7 +5356,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,14 +5366,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5358,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,11 +5399,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5408,14 +5432,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>330</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5431,7 +5455,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,14 +5465,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5457,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5474,7 +5498,7 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>24</v>
+        <v>333</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
@@ -5497,7 +5521,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5507,11 +5531,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5523,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5540,14 +5564,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>339</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5556,7 +5580,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5573,14 +5597,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5589,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5606,49 +5630,181 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>343</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>168</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>90</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>231</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>344</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>168</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>90</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>14</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>345</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>23</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>90</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>14</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>346</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>23</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>90</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>67</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q126" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7998.835</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>339</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>340</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>341</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>8231.625</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>347</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>348</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>349</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6257,10 +6413,30 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>400.0000</t>
+  </si>
+  <si>
+    <t>بودره قدم</t>
   </si>
   <si>
     <t xml:space="preserve">بيبرونه ALGO صغيره </t>
@@ -5356,7 +5359,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,11 +5369,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>37</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5382,14 +5385,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>23</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,11 +5402,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>37</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,14 +5435,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5448,14 +5451,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,14 +5468,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5488,7 +5491,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,14 +5501,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5514,14 +5517,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,11 +5534,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5547,7 +5550,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5564,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>339</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5580,7 +5583,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5597,14 +5600,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>313</v>
+        <v>340</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5620,7 +5623,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,14 +5633,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5646,14 +5649,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,11 +5666,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>218</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5696,11 +5699,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5719,7 +5722,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5762,49 +5765,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>347</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>23</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>90</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>67</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>68</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>8231.625</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>347</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>8251.625</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>348</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
         <v>349</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>350</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6433,10 +6469,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -413,7 +413,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>48.00</t>
@@ -578,7 +578,7 @@
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>65.00</t>
@@ -833,6 +833,9 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -950,9 +953,6 @@
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -1055,7 +1055,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:15 PM</t>
+    <t>Tuesday, 10 June, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2620,7 +2620,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -3940,7 +3940,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4699,7 +4699,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4742,11 +4742,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4775,11 +4775,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4874,11 +4874,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4923,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4940,11 +4940,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4973,11 +4973,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4989,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5006,11 +5006,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5072,11 +5072,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5105,11 +5105,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5154,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5171,11 +5171,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5187,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5293,7 +5293,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5359,7 +5359,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5600,11 +5600,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>340</v>
@@ -5640,7 +5640,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -413,13 +413,16 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>207.8400</t>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>3:2</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -515,9 +518,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -578,7 +578,7 @@
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>65.00</t>
@@ -668,9 +668,6 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
     <t>MUPIRAX 2% OINT. 10 GM</t>
   </si>
   <si>
@@ -833,126 +830,123 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>VONSECA 20MG 14 TAB</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8681:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>WHITON CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>169.00</t>
+  </si>
+  <si>
+    <t>169.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 15ML</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>UNIFUNGI 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>VILDAGLUSE PLUS 50/1000MG 30 TABS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 100MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>VONSECA 20MG 14 TAB</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8681:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>WHITON CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>169.00</t>
-  </si>
-  <si>
-    <t>169.0000</t>
-  </si>
-  <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 15ML</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>XORIN 1GM VIAL</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -1055,7 +1049,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:17 PM</t>
+    <t>Tuesday, 10 June, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2620,7 +2614,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2934,7 +2928,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2943,7 +2937,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2960,11 +2954,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2976,7 +2970,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2997,7 +2991,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -3009,7 +3003,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3030,7 +3024,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3042,7 +3036,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3059,11 +3053,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -3075,7 +3069,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3092,11 +3086,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3108,7 +3102,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3125,11 +3119,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3141,7 +3135,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3158,11 +3152,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3174,14 +3168,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3191,14 +3185,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3207,14 +3201,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3228,7 +3222,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3240,7 +3234,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3257,11 +3251,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>52</v>
@@ -3273,14 +3267,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3719,7 +3713,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3917,7 +3911,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3940,24 +3934,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3966,7 +3960,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3983,11 +3977,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3999,14 +3993,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4016,11 +4010,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4032,7 +4026,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4049,14 +4043,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4065,7 +4059,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4082,14 +4076,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4098,7 +4092,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4115,11 +4109,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4131,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4148,11 +4142,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4171,7 +4165,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4181,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4197,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4214,11 +4208,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4237,7 +4231,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4247,14 +4241,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4270,7 +4264,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4280,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>35</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4296,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4313,11 +4307,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4336,7 +4330,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4346,11 +4340,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4362,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4379,11 +4373,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4395,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4412,11 +4406,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4428,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4445,14 +4439,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>43</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4461,14 +4455,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4478,11 +4472,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>43</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4494,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4511,14 +4505,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4527,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4544,11 +4538,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4560,14 +4554,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4577,11 +4571,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4593,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4610,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4626,14 +4620,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4643,11 +4637,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4659,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4676,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4699,7 +4693,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4709,11 +4703,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4725,14 +4719,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4742,11 +4736,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4758,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4775,7 +4769,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4798,7 +4792,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4808,14 +4802,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4824,14 +4818,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4841,14 +4835,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4857,7 +4851,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4874,7 +4868,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4897,7 +4891,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4907,14 +4901,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4923,14 +4917,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4963,7 +4957,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4973,14 +4967,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4989,14 +4983,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>23</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5006,11 +5000,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5022,7 +5016,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5039,11 +5033,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5062,7 +5056,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5079,7 +5073,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5095,7 +5089,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5105,14 +5099,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5121,14 +5115,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5138,11 +5132,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5154,14 +5148,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5171,14 +5165,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>135</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5194,7 +5188,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5204,14 +5198,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5227,7 +5221,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5237,11 +5231,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5253,14 +5247,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>311</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5270,14 +5264,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5286,28 +5280,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5319,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5336,11 +5330,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5352,14 +5346,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5369,11 +5363,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5392,7 +5386,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5402,11 +5396,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5425,7 +5419,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>23</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5435,14 +5429,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>223</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5451,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5468,14 +5462,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5484,14 +5478,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5501,14 +5495,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5517,14 +5511,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5534,11 +5528,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5550,7 +5544,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5567,14 +5561,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q124" s="12">
         <v>338</v>
-      </c>
-      <c t="s" r="Q124" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5600,14 +5594,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>295</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>340</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5616,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5633,14 +5627,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>88</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5656,7 +5650,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5666,11 +5660,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5682,14 +5676,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5699,11 +5693,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5715,14 +5709,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5748,7 +5742,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5765,82 +5759,49 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="A131" s="7">
-        <v>125</v>
-      </c>
-      <c r="B131" s="7"/>
-      <c t="s" r="C131" s="8">
+      <c r="P131" s="13">
+        <v>8180.4650000000001</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>346</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
         <v>347</v>
       </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c t="s" r="H131" s="9">
-        <v>23</v>
-      </c>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c t="s" r="L131" s="10">
-        <v>90</v>
-      </c>
-      <c r="M131" s="10"/>
-      <c t="s" r="N131" s="8">
-        <v>67</v>
-      </c>
-      <c r="O131" s="8"/>
-      <c t="s" r="P131" s="11">
-        <v>68</v>
-      </c>
-      <c t="s" r="Q131" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>8251.625</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
         <v>348</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>349</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
-        <v>350</v>
-      </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6469,15 +6430,10 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="H131:K131"/>
-    <mergeCell ref="L131:M131"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>AMARYL 3 MG 30 TABS</t>
   </si>
   <si>
@@ -929,18 +938,21 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -1049,7 +1061,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:18 PM</t>
+    <t>Tuesday, 10 June, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,7 +1834,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1839,7 +1851,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1855,7 +1867,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1865,14 +1877,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1905,7 +1917,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1954,7 +1966,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1971,7 +1983,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1987,7 +1999,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2004,7 +2016,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2020,7 +2032,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2037,7 +2049,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2053,7 +2065,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2119,7 +2131,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2202,7 +2214,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2251,7 +2263,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2301,7 +2313,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2317,7 +2329,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2360,7 +2372,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2383,7 +2395,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2442,31 +2454,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2475,20 +2487,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2515,7 +2527,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2532,7 +2544,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2614,7 +2626,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2631,7 +2643,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2647,7 +2659,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2713,7 +2725,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2746,7 +2758,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2763,7 +2775,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2779,7 +2791,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2796,7 +2808,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2812,7 +2824,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2878,7 +2890,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2911,7 +2923,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,14 +2966,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2977,7 +2989,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,11 +2999,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,7 +3065,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3076,7 +3088,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3109,7 +3121,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3126,7 +3138,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3142,7 +3154,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3159,7 +3171,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3175,7 +3187,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>164</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3241,7 +3253,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3274,7 +3286,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3291,7 +3303,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3307,7 +3319,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3321,10 +3333,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3333,28 +3345,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3373,13 +3385,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3406,7 +3418,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3423,7 +3435,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3439,7 +3451,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3456,7 +3468,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3472,7 +3484,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3505,24 +3517,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,20 +3543,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3555,7 +3567,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3604,21 +3616,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3630,31 +3642,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3663,31 +3675,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3736,7 +3748,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3802,7 +3814,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,28 +3840,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3868,13 +3880,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3885,7 +3897,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3901,7 +3913,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,14 +3923,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3960,7 +3972,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3977,11 +3989,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,7 +4022,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4050,7 +4062,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4080,10 +4092,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4092,7 +4104,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4109,11 +4121,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4132,7 +4144,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,11 +4154,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4208,11 +4220,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,11 +4286,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4297,7 +4309,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,11 +4319,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>135</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4323,14 +4335,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,11 +4352,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,11 +4385,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,11 +4418,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4422,14 +4434,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4451,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,11 +4484,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4488,14 +4500,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4512,7 +4524,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4528,7 +4540,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4561,7 +4573,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4594,7 +4606,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4611,7 +4623,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4627,7 +4639,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4660,7 +4672,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4698,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,11 +4715,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4726,7 +4738,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4759,7 +4771,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,11 +4781,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>27</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4785,14 +4797,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4830,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4868,11 +4880,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4884,14 +4896,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,14 +4913,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>64</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4924,7 +4936,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4957,7 +4969,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4979,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,14 +4995,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>23</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,11 +5012,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5016,7 +5028,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5033,11 +5045,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5056,7 +5068,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5073,7 +5085,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5089,7 +5101,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,14 +5111,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,14 +5127,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,11 +5144,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>110</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5148,14 +5160,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>73</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5177,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,14 +5193,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5210,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,14 +5226,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5231,14 +5243,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5247,14 +5259,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,14 +5276,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>146</v>
+        <v>235</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5287,13 +5299,13 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5304,7 +5316,7 @@
         <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5320,21 +5332,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5353,13 +5365,13 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5367,7 +5379,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5379,28 +5391,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5425,7 +5437,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5433,10 +5445,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5445,31 +5457,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5485,13 +5497,13 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5502,7 +5514,7 @@
         <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5518,24 +5530,24 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5544,31 +5556,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>338</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5577,7 +5589,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5590,18 +5602,18 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,31 +5622,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5643,31 +5655,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5676,28 +5688,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5709,28 +5721,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5742,66 +5754,132 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>8180.4650000000001</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>346</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>347</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>348</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>23</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>93</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>14</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>349</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>23</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>93</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>70</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>8310.4650000000001</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>350</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>351</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>352</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6430,10 +6508,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AUGRAM 1GM 14 TABS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>AVARA 20MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CHICKS OMEGA D3</t>
   </si>
   <si>
@@ -374,9 +392,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -404,267 +419,270 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>35.6400</t>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ESLIZEPINE 400 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>342.00</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>13.3650</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LUNNER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
+  </si>
+  <si>
+    <t>277.50</t>
+  </si>
+  <si>
+    <t>91.5750</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 6 SUPP.</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>175.6800</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ESLIZEPINE 400 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>342.00</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>34.5600</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>360.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOLDEN FER-F 30 CHEW. TABS.</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>13.3650</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOTRETINOIN 10MG SOFT GELATIN30 CAPS </t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LUNNER CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
-  </si>
-  <si>
-    <t>277.50</t>
-  </si>
-  <si>
-    <t>91.5750</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -707,6 +725,18 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>184.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>OCUSEELLERGE 0.05% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -746,6 +776,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PENTABURN 0.25% TOP. OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -902,15 +941,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8681:0</t>
+    <t>8677:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>WELLOFUNG 2% TOPICAL CREAM 40 GM</t>
   </si>
   <si>
@@ -956,9 +992,6 @@
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -989,6 +1022,9 @@
     <t>400.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
     <t>بودره قدم</t>
   </si>
   <si>
@@ -1031,13 +1067,13 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>35:0</t>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>40:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1046,9 +1082,6 @@
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1061,7 +1094,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:20 PM</t>
+    <t>Tuesday, 10 June, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2131,7 +2164,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2148,7 +2181,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2164,7 +2197,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2174,14 +2207,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2190,14 +2223,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2247,7 +2280,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2296,7 +2329,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2306,14 +2339,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2322,14 +2355,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2346,7 +2379,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2362,7 +2395,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2388,14 +2421,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2405,7 +2438,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2428,7 +2461,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2438,14 +2471,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2454,14 +2487,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2471,14 +2504,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2487,31 +2520,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2520,14 +2553,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2537,14 +2570,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2553,20 +2586,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2577,7 +2610,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2593,7 +2626,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2603,11 +2636,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2619,14 +2652,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2636,14 +2669,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2676,7 +2709,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2692,7 +2725,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,14 +2735,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2718,14 +2751,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2735,14 +2768,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2751,14 +2784,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,14 +2801,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2791,7 +2824,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2801,14 +2834,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2824,7 +2857,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2857,7 +2890,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,14 +2900,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,14 +2916,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2900,14 +2933,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2916,14 +2949,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2933,14 +2966,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2949,14 +2982,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2966,14 +2999,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2982,14 +3015,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2999,14 +3032,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3015,14 +3048,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3032,14 +3065,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3048,7 +3081,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3065,7 +3098,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3088,7 +3121,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,11 +3131,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -3114,14 +3147,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,11 +3164,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3147,14 +3180,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3164,14 +3197,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3180,14 +3213,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3197,11 +3230,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3213,14 +3246,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,14 +3263,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3246,14 +3279,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,11 +3296,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3279,14 +3312,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,14 +3329,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3312,14 +3345,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,14 +3362,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3345,14 +3378,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3362,14 +3395,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3378,31 +3411,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3411,14 +3444,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3428,11 +3461,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3444,31 +3477,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3477,14 +3510,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,11 +3527,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3510,14 +3543,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3527,14 +3560,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3543,31 +3576,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3576,14 +3609,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3593,11 +3626,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3609,31 +3642,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,28 +3675,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3682,13 +3715,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3696,10 +3729,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3708,7 +3741,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3721,15 +3754,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3741,31 +3774,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3781,7 +3814,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3791,11 +3824,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3807,14 +3840,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3824,14 +3857,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3840,14 +3873,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3857,11 +3890,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3880,13 +3913,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3897,7 +3930,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3913,7 +3946,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3923,14 +3956,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3939,28 +3972,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3972,14 +4005,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3989,11 +4022,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4005,14 +4038,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4022,14 +4055,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4045,7 +4078,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4055,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4071,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4088,14 +4121,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4104,14 +4137,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4121,11 +4154,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4137,7 +4170,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4154,11 +4187,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4170,14 +4203,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4187,14 +4220,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4210,7 +4243,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4224,10 +4257,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4236,14 +4269,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4253,14 +4286,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4269,14 +4302,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4286,11 +4319,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4302,14 +4335,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4319,11 +4352,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4335,14 +4368,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,14 +4385,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4368,14 +4401,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4385,14 +4418,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4401,7 +4434,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4418,11 +4451,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4434,14 +4467,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4451,11 +4484,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4467,14 +4500,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4484,14 +4517,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4500,14 +4533,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,14 +4550,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4533,14 +4566,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4550,11 +4583,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4566,14 +4599,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,11 +4616,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4599,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4616,11 +4649,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4632,14 +4665,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4649,11 +4682,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4665,14 +4698,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4682,11 +4715,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4698,14 +4731,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4715,11 +4748,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4738,7 +4771,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4771,7 +4804,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4804,7 +4837,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4814,14 +4847,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4830,7 +4863,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4847,11 +4880,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4863,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4880,11 +4913,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4896,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4913,11 +4946,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>64</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4929,14 +4962,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,14 +4979,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4962,14 +4995,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,14 +5012,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4995,14 +5028,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5012,14 +5045,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5028,7 +5061,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5045,11 +5078,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5078,11 +5111,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5094,14 +5127,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5111,11 +5144,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5127,14 +5160,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5144,14 +5177,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>110</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5167,7 +5200,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>73</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,14 +5210,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5200,7 +5233,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>23</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5210,11 +5243,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5226,14 +5259,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>23</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5243,14 +5276,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5259,14 +5292,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5276,7 +5309,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>235</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5299,7 +5332,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5309,14 +5342,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>116</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,14 +5358,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5342,11 +5375,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5358,28 +5391,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5398,24 +5431,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5424,31 +5457,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5457,31 +5490,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5490,31 +5523,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5530,24 +5563,24 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5556,28 +5589,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5596,21 +5629,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>40</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>340</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5622,7 +5655,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5635,18 +5668,18 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>342</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5655,31 +5688,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5688,31 +5721,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>24</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
         <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5728,24 +5761,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5761,21 +5794,21 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5787,7 +5820,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5800,18 +5833,18 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5820,7 +5853,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5833,53 +5866,251 @@
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>71</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>8310.4650000000001</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>350</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>351</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
-        <v>352</v>
-      </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>355</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>23</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>99</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>344</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>356</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>12</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>99</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>24</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>353</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>357</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>141</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>99</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>243</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>358</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>141</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>99</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>14</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>359</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>23</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>99</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>14</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>360</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>23</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>99</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>73</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>8766.2250000000004</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>361</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>362</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>363</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6518,10 +6749,40 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -1094,7 +1094,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:32 PM</t>
+    <t>Tuesday, 10 June, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -503,6 +503,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -1070,18 +1079,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
     <t>80.0000</t>
   </si>
   <si>
-    <t>40:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -1094,7 +1106,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:34 PM</t>
+    <t>Tuesday, 10 June, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3319,7 +3331,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3385,7 +3397,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3418,7 +3430,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3435,7 +3447,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3451,7 +3463,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3465,10 +3477,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3477,28 +3489,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3517,13 +3529,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3550,7 +3562,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3567,7 +3579,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3583,7 +3595,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3600,7 +3612,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3649,24 +3661,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3675,20 +3687,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3699,7 +3711,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3748,21 +3760,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3807,31 +3819,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3880,7 +3892,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,14 +3935,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3946,7 +3958,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3972,28 +3984,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -4012,24 +4024,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>55</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4137,7 +4149,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,7 +4199,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4227,7 +4239,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4243,7 +4255,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4260,7 +4272,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>241</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4302,7 +4314,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4319,11 +4331,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4342,7 +4354,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,11 +4430,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,11 +4496,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4540,7 +4552,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,11 +4562,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,11 +4595,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,11 +4628,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,11 +4661,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,14 +4694,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4698,14 +4710,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>92</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>46</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4731,14 +4743,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4755,7 +4767,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4771,7 +4783,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4804,7 +4816,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4837,7 +4849,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4854,7 +4866,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4870,7 +4882,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4903,7 +4915,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4929,14 +4941,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4946,11 +4958,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>142</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4969,7 +4981,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5002,7 +5014,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,11 +5024,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5057,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5061,14 +5073,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5078,14 +5090,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5111,11 +5123,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5127,14 +5139,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5144,14 +5156,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>67</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5167,7 +5179,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5200,7 +5212,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5210,14 +5222,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5233,7 +5245,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>23</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5243,14 +5255,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,7 +5271,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5276,11 +5288,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>142</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5299,7 +5311,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5316,7 +5328,7 @@
         <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5332,7 +5344,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5342,14 +5354,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5358,14 +5370,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5375,7 +5387,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5398,7 +5410,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,11 +5420,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5424,14 +5436,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5441,14 +5453,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>142</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5457,14 +5469,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5474,14 +5486,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5490,14 +5502,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,7 +5519,7 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
@@ -5530,7 +5542,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5540,14 +5552,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>153</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5556,28 +5568,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5596,7 +5608,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,11 +5618,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5622,14 +5634,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5639,11 +5651,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5655,14 +5667,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5672,11 +5684,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5688,14 +5700,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>342</v>
+        <v>23</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,11 +5717,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5721,14 +5733,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,14 +5750,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5761,7 +5773,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5771,14 +5783,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5787,14 +5799,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,14 +5816,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5827,7 +5839,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5841,10 +5853,10 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5853,7 +5865,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5870,14 +5882,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>353</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>354</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5903,14 +5915,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>241</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5919,14 +5931,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5936,14 +5948,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>353</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5952,14 +5964,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5969,11 +5981,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5985,7 +5997,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6002,11 +6014,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>16</v>
@@ -6018,14 +6030,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6039,10 +6051,10 @@
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6051,7 +6063,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6068,49 +6080,82 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>364</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>23</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>99</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>73</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
         <v>74</v>
       </c>
-      <c t="s" r="Q138" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>8766.2250000000004</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>361</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>362</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>363</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>8806.8349999999991</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>365</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>366</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>367</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6779,10 +6824,15 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -1106,7 +1106,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:35 PM</t>
+    <t>Tuesday, 10 June, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -605,6 +605,15 @@
     <t>13.3650</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -734,6 +743,12 @@
     <t>136.0000</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>NOVACTAM 1500MG VIAL I.M/I.V</t>
   </si>
   <si>
@@ -908,9 +923,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
@@ -1106,7 +1118,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:36 PM</t>
+    <t>Tuesday, 10 June, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3694,21 +3706,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3720,20 +3732,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3744,7 +3756,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3793,21 +3805,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3819,14 +3831,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3836,14 +3848,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3852,31 +3864,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3902,14 +3914,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3925,7 +3937,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3935,14 +3947,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3968,14 +3980,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3991,7 +4003,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4017,28 +4029,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -4057,24 +4069,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4100,14 +4112,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4116,14 +4128,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4149,14 +4161,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4166,14 +4178,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4182,7 +4194,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4199,11 +4211,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4232,7 +4244,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4272,7 +4284,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4288,7 +4300,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4305,7 +4317,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>244</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4314,7 +4326,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4331,11 +4343,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4347,14 +4359,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4364,14 +4376,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4387,7 +4399,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4397,11 +4409,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4413,14 +4425,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4430,14 +4442,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>90</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4446,14 +4458,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4463,14 +4475,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4479,14 +4491,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4496,14 +4508,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4512,14 +4524,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4529,14 +4541,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4545,14 +4557,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4562,11 +4574,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4578,14 +4590,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4595,11 +4607,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4611,14 +4623,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4628,11 +4640,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4644,14 +4656,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4661,11 +4673,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4677,14 +4689,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4698,7 +4710,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4710,14 +4722,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4727,14 +4739,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4743,14 +4755,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4760,14 +4772,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4776,14 +4788,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4793,14 +4805,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4809,14 +4821,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4826,14 +4838,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4842,14 +4854,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4859,11 +4871,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4875,14 +4887,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4892,14 +4904,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4908,14 +4920,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4925,14 +4937,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4941,14 +4953,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4958,14 +4970,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4974,14 +4986,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4991,14 +5003,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5007,14 +5019,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5024,11 +5036,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5040,14 +5052,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5057,7 +5069,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -5080,7 +5092,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5090,14 +5102,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>33</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5106,14 +5118,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5123,11 +5135,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5146,7 +5158,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5156,14 +5168,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5172,14 +5184,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5189,14 +5201,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5205,14 +5217,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5222,14 +5234,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>67</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5238,14 +5250,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5255,14 +5267,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>41</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5271,14 +5283,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5288,14 +5300,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5311,7 +5323,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>23</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5321,14 +5333,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5344,7 +5356,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5354,14 +5366,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5370,14 +5382,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5387,11 +5399,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5403,14 +5415,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5420,14 +5432,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5436,14 +5448,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5453,11 +5465,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5469,14 +5481,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5486,14 +5498,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5509,7 +5521,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>332</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5519,14 +5531,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5542,7 +5554,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5552,14 +5564,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5568,14 +5580,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5585,14 +5597,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5608,13 +5620,13 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5625,7 +5637,7 @@
         <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5641,21 +5653,21 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5674,7 +5686,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5684,11 +5696,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5700,14 +5712,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5717,11 +5729,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>343</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5733,14 +5745,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5754,7 +5766,7 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5787,10 +5799,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>348</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5799,14 +5811,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5820,10 +5832,10 @@
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5839,7 +5851,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5856,7 +5868,7 @@
         <v>352</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5872,7 +5884,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5882,14 +5894,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5898,14 +5910,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5915,14 +5927,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
         <v>356</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>357</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5931,7 +5943,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5948,14 +5960,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5971,7 +5983,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5981,14 +5993,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
         <v>360</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5997,14 +6009,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6014,14 +6026,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>246</v>
+        <v>351</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6030,14 +6042,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6047,11 +6059,11 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6063,14 +6075,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6080,14 +6092,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6096,14 +6108,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6113,49 +6125,115 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>367</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>23</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>99</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>14</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>368</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>23</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>99</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>73</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
         <v>74</v>
       </c>
-      <c t="s" r="Q139" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>8806.8349999999991</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>365</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
-        <v>366</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
-        <v>367</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>8968.8349999999991</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>369</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>370</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>371</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6829,10 +6907,20 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -1067,9 +1067,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -1118,7 +1115,7 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:37 PM</t>
+    <t>Tuesday, 10 June, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5865,10 +5862,10 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5877,7 +5874,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5910,7 +5907,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5927,11 +5924,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5943,7 +5940,7 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -5960,7 +5957,7 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
@@ -5976,7 +5973,7 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -5997,10 +5994,10 @@
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>360</v>
-      </c>
-      <c t="s" r="Q135" s="12">
-        <v>361</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6009,7 +6006,7 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -6042,7 +6039,7 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -6063,7 +6060,7 @@
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>16</v>
@@ -6075,7 +6072,7 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -6108,7 +6105,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6141,7 +6138,7 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -6174,7 +6171,7 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -6203,13 +6200,13 @@
     </row>
     <row r="142" ht="25.5" customHeight="1">
       <c r="P142" s="13">
-        <v>8968.8349999999991</v>
+        <v>8974.8349999999991</v>
       </c>
       <c r="Q142" s="13"/>
     </row>
     <row r="143" ht="16.5" customHeight="1">
       <c t="s" r="A143" s="14">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -6217,13 +6214,13 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c t="s" r="G143" s="15">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="16"/>
       <c t="s" r="K143" s="17">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>

--- a/DaySale_2025-06-10_00-00.xlsx
+++ b/DaySale_2025-06-10_00-00.xlsx
@@ -455,6 +455,15 @@
     <t>50.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">EAZEX-LINE  30GM GEL</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
   </si>
   <si>
@@ -488,12 +497,6 @@
     <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -818,6 +821,9 @@
     <t>69.00</t>
   </si>
   <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
     <t>REPARIL-GEL N 40 GM</t>
   </si>
   <si>
@@ -1067,6 +1073,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>حلاوة حرير</t>
   </si>
   <si>
@@ -1109,13 +1118,16 @@
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>Tuesday, 10 June, 2025 9:46 PM</t>
+    <t>Tuesday, 10 June, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3142,24 +3154,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3218,7 +3230,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3241,7 +3253,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3274,7 +3286,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3291,7 +3303,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3307,7 +3319,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3333,7 +3345,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3416,14 +3428,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3531,28 +3543,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3564,28 +3576,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3614,14 +3626,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3647,14 +3659,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3663,7 +3675,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3680,11 +3692,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3729,28 +3741,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3762,31 +3774,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3795,7 +3807,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3812,11 +3824,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3828,28 +3840,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3868,7 +3880,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3878,14 +3890,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3894,31 +3906,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3934,7 +3946,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3993,14 +4005,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4010,14 +4022,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4026,14 +4038,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4043,14 +4055,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4066,21 +4078,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -4092,31 +4104,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4132,7 +4144,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4191,14 +4203,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4224,7 +4236,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4241,11 +4253,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4274,11 +4286,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4290,7 +4302,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4307,14 +4319,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4323,7 +4335,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4340,14 +4352,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4373,14 +4385,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4422,7 +4434,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4439,11 +4451,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4455,14 +4467,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4472,11 +4484,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4495,7 +4507,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4505,14 +4517,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4521,14 +4533,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4538,11 +4550,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4561,7 +4573,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4571,14 +4583,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4594,7 +4606,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4604,11 +4616,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4620,7 +4632,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4637,11 +4649,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4653,14 +4665,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4670,11 +4682,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4693,7 +4705,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,11 +4715,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4719,14 +4731,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4736,11 +4748,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4752,14 +4764,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4769,11 +4781,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4785,14 +4797,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4802,14 +4814,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4818,14 +4830,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4835,14 +4847,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4851,14 +4863,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4868,14 +4880,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4884,14 +4896,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>88</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4901,14 +4913,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N10